--- a/1.9.备用实时.xlsx
+++ b/1.9.备用实时.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workroom\send_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEF1C5A-2DDF-4E97-AFCD-C60A88CF8F2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9DF369-4638-45B2-A6DD-A0B1A5F48F1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22710" windowHeight="12740" xr2:uid="{30CC2B6C-FACD-43FA-96D9-4E5FB08F7894}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="669">
   <si>
     <t>李思和</t>
   </si>
@@ -952,6 +952,1086 @@
   </si>
   <si>
     <t>刘苗苗</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>安书聪</t>
+  </si>
+  <si>
+    <t>广东省广州市番禺区番禺区洛浦街工业路</t>
+  </si>
+  <si>
+    <t>金平</t>
+  </si>
+  <si>
+    <t>四川省资阳市雁江区大北街36号</t>
+  </si>
+  <si>
+    <t>袁伟</t>
+  </si>
+  <si>
+    <t>甘肃省白银市白银区友好路96号</t>
+  </si>
+  <si>
+    <t>刘安静</t>
+  </si>
+  <si>
+    <t>辽宁省沈阳市和平区虎事态针大旺街</t>
+  </si>
+  <si>
+    <t>41270219950711653X</t>
+  </si>
+  <si>
+    <t>冯红伟</t>
+  </si>
+  <si>
+    <t>奚王</t>
+  </si>
+  <si>
+    <t>罗钢</t>
+  </si>
+  <si>
+    <t>重庆市重庆市江北区龙湖紫荆城2一7</t>
+  </si>
+  <si>
+    <t>张涛</t>
+  </si>
+  <si>
+    <t>河北省廊坊市霸州市河北省霸州市南孟村</t>
+  </si>
+  <si>
+    <t>张艳奎</t>
+  </si>
+  <si>
+    <t>广西百色市右江区百色市那毕大道龙景西路</t>
+  </si>
+  <si>
+    <t>阮志宁</t>
+  </si>
+  <si>
+    <t>北京市北京市朝阳区建国路万达广场91号院五号楼805</t>
+  </si>
+  <si>
+    <t>聂宪冰</t>
+  </si>
+  <si>
+    <t>黄志伟</t>
+  </si>
+  <si>
+    <t>湖南省衡阳市耒阳市金华路国际大酒店后4幢601</t>
+  </si>
+  <si>
+    <t>符堾荣</t>
+  </si>
+  <si>
+    <t>四川省凉山彝族自治州西昌市西昌市西客站对面</t>
+  </si>
+  <si>
+    <t>杨世龙</t>
+  </si>
+  <si>
+    <t>彭柏枝</t>
+  </si>
+  <si>
+    <t>安徽省合肥市包河区金寨路立基大厦B座</t>
+  </si>
+  <si>
+    <t>桂君</t>
+  </si>
+  <si>
+    <t>福建省漳州市东山县铜陵镇东门屿招待所</t>
+  </si>
+  <si>
+    <t>唐义坚</t>
+  </si>
+  <si>
+    <t>安徽省六安市金安区新河东路10号</t>
+  </si>
+  <si>
+    <t>方光辉</t>
+  </si>
+  <si>
+    <t>福建省龙岩市新罗区龙州工业园创业楼</t>
+  </si>
+  <si>
+    <t>罗延海</t>
+  </si>
+  <si>
+    <t>湖南省长沙市开福区万达总部国际C2-1809</t>
+  </si>
+  <si>
+    <t>黎长阳</t>
+  </si>
+  <si>
+    <t>江苏省无锡市锡山区安镇街道山河路50-6号</t>
+  </si>
+  <si>
+    <t>61052419960225401X</t>
+  </si>
+  <si>
+    <t>雷云龙</t>
+  </si>
+  <si>
+    <t>江苏省南京市建邺区莫愁新村51号3楼</t>
+  </si>
+  <si>
+    <t>何健</t>
+  </si>
+  <si>
+    <t>湖南省娄底市双峰县甘棠镇仰书村</t>
+  </si>
+  <si>
+    <t>邹剑雄</t>
+  </si>
+  <si>
+    <t>李长军</t>
+  </si>
+  <si>
+    <t>65230119910824643X</t>
+  </si>
+  <si>
+    <t>童雪健</t>
+  </si>
+  <si>
+    <t>山东省德州市齐河县刘桥乡大孟村</t>
+  </si>
+  <si>
+    <t>37142519880628551X</t>
+  </si>
+  <si>
+    <t>孟聪聪</t>
+  </si>
+  <si>
+    <t>江西省赣州市崇义县江西省赣州市崇义章源大道</t>
+  </si>
+  <si>
+    <t>周德林</t>
+  </si>
+  <si>
+    <t>黑龙江省齐齐哈尔市富拉尔基区和平大街189号</t>
+  </si>
+  <si>
+    <t>张成伟</t>
+  </si>
+  <si>
+    <t>44080319920925151X</t>
+  </si>
+  <si>
+    <t>李浩然</t>
+  </si>
+  <si>
+    <t>云南省昭通市彝良县云南省昭通市彝良海子新场</t>
+  </si>
+  <si>
+    <t>李乾伟</t>
+  </si>
+  <si>
+    <t>河南省郑州市新郑市河南省郑州市新郑市解放路与学院路交叉口</t>
+  </si>
+  <si>
+    <t>唐晨旭</t>
+  </si>
+  <si>
+    <t>洪玲</t>
+  </si>
+  <si>
+    <t>河北省衡水市冀州市冀州炉具市场</t>
+  </si>
+  <si>
+    <t>韩英</t>
+  </si>
+  <si>
+    <t>福建省三明市大田县三明市大田县上京镇069号</t>
+  </si>
+  <si>
+    <t>蔡丽珠</t>
+  </si>
+  <si>
+    <t>江苏省宿迁市宿城区工业园区</t>
+  </si>
+  <si>
+    <t>胡力年</t>
+  </si>
+  <si>
+    <t>谢合富</t>
+  </si>
+  <si>
+    <t>广东省佛山市禅城区勒流镇黄连工业大道煌龙环保机械设备有限公司</t>
+  </si>
+  <si>
+    <t>41130319980707593X</t>
+  </si>
+  <si>
+    <t>马号阳</t>
+  </si>
+  <si>
+    <t>吉林省吉林市丰满区62555847</t>
+  </si>
+  <si>
+    <t>王双双</t>
+  </si>
+  <si>
+    <t>四川省成都市邛崃市司马大道74号</t>
+  </si>
+  <si>
+    <t>韩平</t>
+  </si>
+  <si>
+    <t>广东省惠州市惠城区惠风七路15号</t>
+  </si>
+  <si>
+    <t>丰飘</t>
+  </si>
+  <si>
+    <t>贵州省黔东南苗族侗族自治州凯里市凯里市北京西路21号</t>
+  </si>
+  <si>
+    <t>顾清华</t>
+  </si>
+  <si>
+    <t>陕西省西安市新城区太白南路荣禾云图中心4楼</t>
+  </si>
+  <si>
+    <t>高文超</t>
+  </si>
+  <si>
+    <t>青海省西宁市大通回族土族自治县宁张公路70号</t>
+  </si>
+  <si>
+    <t>魏廷荣</t>
+  </si>
+  <si>
+    <t>广西柳州市柳北区北雀路84号</t>
+  </si>
+  <si>
+    <t>陈思伟</t>
+  </si>
+  <si>
+    <t>张行征</t>
+  </si>
+  <si>
+    <t>江苏省泰州市高港区宇马路2号</t>
+  </si>
+  <si>
+    <t>周庆伟</t>
+  </si>
+  <si>
+    <t>天津市天津市蓟县渔阳南路97号</t>
+  </si>
+  <si>
+    <t>曹俊楠</t>
+  </si>
+  <si>
+    <t>黑龙江省哈尔滨市南岗区西大直街51号</t>
+  </si>
+  <si>
+    <t>王大勇</t>
+  </si>
+  <si>
+    <t>44120319951025091X</t>
+  </si>
+  <si>
+    <t>石思远</t>
+  </si>
+  <si>
+    <t>重庆市重庆市江津区长冲街15</t>
+  </si>
+  <si>
+    <t>刘芳利</t>
+  </si>
+  <si>
+    <t>福建省龙岩市长汀县工贸新城开发区</t>
+  </si>
+  <si>
+    <t>梁惠阳</t>
+  </si>
+  <si>
+    <t>河南省郑州市金水区郑州国贸中心一层肯德基餐厅</t>
+  </si>
+  <si>
+    <t>41012219950805575X</t>
+  </si>
+  <si>
+    <t>刘鹏</t>
+  </si>
+  <si>
+    <t>胡亚州</t>
+  </si>
+  <si>
+    <t>陈国强</t>
+  </si>
+  <si>
+    <t>吴浩</t>
+  </si>
+  <si>
+    <t>湖北省黄冈市武穴市余川镇大坝村大坝脚</t>
+  </si>
+  <si>
+    <t>胡超勇</t>
+  </si>
+  <si>
+    <t>赵轮超</t>
+  </si>
+  <si>
+    <t>海南省海口市龙华区龙昆南路58号和信广场大润发</t>
+  </si>
+  <si>
+    <t>汪楚哲</t>
+  </si>
+  <si>
+    <t>陀少丹</t>
+  </si>
+  <si>
+    <t>贵州省贵阳市云岩区云岩区延安西路6号</t>
+  </si>
+  <si>
+    <t>李盛龙</t>
+  </si>
+  <si>
+    <t>湖北省武汉市江汉区江汉区万松园路157号</t>
+  </si>
+  <si>
+    <t>严劼鉴</t>
+  </si>
+  <si>
+    <t>安徽省宿州市埇桥区经济开发区金海五路东侧</t>
+  </si>
+  <si>
+    <t>刘森</t>
+  </si>
+  <si>
+    <t>广东省深圳市罗湖区龙华新区横岭工业园一栋一楼</t>
+  </si>
+  <si>
+    <t>罗扩展</t>
+  </si>
+  <si>
+    <t>安徽省合肥市包河区五里岭工业园区鞋革城</t>
+  </si>
+  <si>
+    <t>左荣华</t>
+  </si>
+  <si>
+    <t>陈永东</t>
+  </si>
+  <si>
+    <t>北京市北京市朝阳区北苑东路中铁二十局</t>
+  </si>
+  <si>
+    <t>马正涛</t>
+  </si>
+  <si>
+    <t>广东省广州市番禺区桥南街道南华路263号二楼</t>
+  </si>
+  <si>
+    <t>徐家香</t>
+  </si>
+  <si>
+    <t>广东省深圳市南山区侨香路香年广场A座1001</t>
+  </si>
+  <si>
+    <t>焦媛媛</t>
+  </si>
+  <si>
+    <t>雷志银</t>
+  </si>
+  <si>
+    <t>广东省深圳市罗湖区莲塘岁宝百货</t>
+  </si>
+  <si>
+    <t>胡爱国</t>
+  </si>
+  <si>
+    <t>山东省德州市德城区金融大厦9层</t>
+  </si>
+  <si>
+    <t>李璐铭</t>
+  </si>
+  <si>
+    <t>刘志峰</t>
+  </si>
+  <si>
+    <t>江苏省南京市秦淮区夫子庙剪子巷164号门面房</t>
+  </si>
+  <si>
+    <t>邹国同</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>吴艺雄</t>
+  </si>
+  <si>
+    <t>云南省西双版纳傣族自治州景洪市西双版纳傣族自治州景洪市基诺族乡</t>
+  </si>
+  <si>
+    <t>付春云</t>
+  </si>
+  <si>
+    <t>江西省上饶市德兴市德兴市新岗山镇九都工业</t>
+  </si>
+  <si>
+    <t>姜美亮</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市绍兴县兴越路1475号</t>
+  </si>
+  <si>
+    <t>王成</t>
+  </si>
+  <si>
+    <t>江西省南昌市青山湖区新魏路2号</t>
+  </si>
+  <si>
+    <t>陈智玮</t>
+  </si>
+  <si>
+    <t>37132419820827283X</t>
+  </si>
+  <si>
+    <t>曹守彬</t>
+  </si>
+  <si>
+    <t>广东省佛山市禅城区祖庙街道花园市场56号</t>
+  </si>
+  <si>
+    <t>黄智标</t>
+  </si>
+  <si>
+    <t>广东省深圳市宝安区深圳福永镇凤凰村第三工业园区创业园路b 栋三楼</t>
+  </si>
+  <si>
+    <t>覃佳乐</t>
+  </si>
+  <si>
+    <t>广东省广州市白云区钟落潭镇广龙路73号</t>
+  </si>
+  <si>
+    <t>王龙群</t>
+  </si>
+  <si>
+    <t>安徽省合肥市瑶海区香江生态丽景c区62栋109</t>
+  </si>
+  <si>
+    <t>倪建邦</t>
+  </si>
+  <si>
+    <t>福建省厦门市同安区新民镇马垵路18号</t>
+  </si>
+  <si>
+    <t>张德龙</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区天祥大厦AB座9b2</t>
+  </si>
+  <si>
+    <t>李沛希</t>
+  </si>
+  <si>
+    <t>广东省阳江市江城区广东省阳江市江城区白沙大道下横岗</t>
+  </si>
+  <si>
+    <t>梁俊杰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广东省深圳市宝安区深圳市龙华区大浪街道石凹第二工业区7栋 </t>
+  </si>
+  <si>
+    <t>艾健雄</t>
+  </si>
+  <si>
+    <t>河南省新乡市红旗区小店工业园区新长北线八号</t>
+  </si>
+  <si>
+    <t>刘贵贺</t>
+  </si>
+  <si>
+    <t>北京市北京市朝阳区酒仙桥路10号恒通商务园b23楼A座二层</t>
+  </si>
+  <si>
+    <t>刘宇</t>
+  </si>
+  <si>
+    <t>周晶</t>
+  </si>
+  <si>
+    <t>李力</t>
+  </si>
+  <si>
+    <t>福建省福州市台江区八一七中路新兴大厦一层</t>
+  </si>
+  <si>
+    <t>张奇</t>
+  </si>
+  <si>
+    <t>舒妙亚</t>
+  </si>
+  <si>
+    <t>浙江省杭州市上城区南复路59号五厅三楼</t>
+  </si>
+  <si>
+    <t>63212619870708061X</t>
+  </si>
+  <si>
+    <t>刘振军</t>
+  </si>
+  <si>
+    <t>江苏省扬州市广陵区江阳路万马滨河城5栋1901</t>
+  </si>
+  <si>
+    <t>32102319880904083X</t>
+  </si>
+  <si>
+    <t>庾培</t>
+  </si>
+  <si>
+    <t>陶剑超</t>
+  </si>
+  <si>
+    <t>温耀鹏</t>
+  </si>
+  <si>
+    <t>江苏省徐州市贾汪区中信时代广场5号楼</t>
+  </si>
+  <si>
+    <t>万伟</t>
+  </si>
+  <si>
+    <t>广东省东莞市凤岗镇凤清路87号</t>
+  </si>
+  <si>
+    <t>植文固</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区彩田路岗厦村瀚森大厦16楼</t>
+  </si>
+  <si>
+    <t>张亮鑫</t>
+  </si>
+  <si>
+    <t>37078419901224031X</t>
+  </si>
+  <si>
+    <t>张维波</t>
+  </si>
+  <si>
+    <t>广东省广州市荔湾区辛苦参加</t>
+  </si>
+  <si>
+    <t>何东阳</t>
+  </si>
+  <si>
+    <t>孟庆满</t>
+  </si>
+  <si>
+    <t>福建省龙岩市新罗区安置小区二栋二梯701</t>
+  </si>
+  <si>
+    <t>陈潮潮</t>
+  </si>
+  <si>
+    <t>广东省广州市天河区广州大道中609号嘉诚国际</t>
+  </si>
+  <si>
+    <t>刘小芳</t>
+  </si>
+  <si>
+    <t>上海市上海市嘉定区上海市嘉定区金沙江路丰庄路路口</t>
+  </si>
+  <si>
+    <t>彭波</t>
+  </si>
+  <si>
+    <t>山西省运城市河津市山西铝厂铝都大道36号</t>
+  </si>
+  <si>
+    <t>14270319860903331X</t>
+  </si>
+  <si>
+    <t>李林凯</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市诸暨市还好还好</t>
+  </si>
+  <si>
+    <t>李祝</t>
+  </si>
+  <si>
+    <t>广东省佛山市顺德区容桂街道扁滘华滘路18号锦绣员工村九栋六号</t>
+  </si>
+  <si>
+    <t>41152719991207552X</t>
+  </si>
+  <si>
+    <t>王王</t>
+  </si>
+  <si>
+    <t>贵州省贵阳市白云区白云区图书馆12楼</t>
+  </si>
+  <si>
+    <t>周涛</t>
+  </si>
+  <si>
+    <t>林承焕</t>
+  </si>
+  <si>
+    <t>李伟</t>
+  </si>
+  <si>
+    <t>安徽省合肥市蜀山区名园绿洲</t>
+  </si>
+  <si>
+    <t>孔维洲</t>
+  </si>
+  <si>
+    <t>杜丹丹</t>
+  </si>
+  <si>
+    <t>重庆市重庆市垫江县垫江县小平桥210号</t>
+  </si>
+  <si>
+    <t>姚前洪</t>
+  </si>
+  <si>
+    <t>邓昭盘</t>
+  </si>
+  <si>
+    <t>广东省广州市荔湾区花城大道花城汇海印都荟城</t>
+  </si>
+  <si>
+    <t>莫善标</t>
+  </si>
+  <si>
+    <t>河北省秦皇岛市海港区海滨路4号</t>
+  </si>
+  <si>
+    <t>管伯乐</t>
+  </si>
+  <si>
+    <t>湖北省武汉市东西湖区金银湖街道马池中路汉口印象</t>
+  </si>
+  <si>
+    <t>张元</t>
+  </si>
+  <si>
+    <t>吴婉玉</t>
+  </si>
+  <si>
+    <t>湖南省衡阳市衡阳县西渡镇蒸阳大道234号</t>
+  </si>
+  <si>
+    <t>常会锐</t>
+  </si>
+  <si>
+    <t>重庆市重庆市沙坪坝区西永镇综保A区1路1号</t>
+  </si>
+  <si>
+    <t>刘伟林</t>
+  </si>
+  <si>
+    <t>江西省赣州市赣县茅店镇上坝村</t>
+  </si>
+  <si>
+    <t>陈海兵</t>
+  </si>
+  <si>
+    <t>袁雪梅</t>
+  </si>
+  <si>
+    <t>广东省清远市阳山县大华百货楼</t>
+  </si>
+  <si>
+    <t>王建飞</t>
+  </si>
+  <si>
+    <t>湖南省长沙市雨花区韶山南路1号爱地林苑小区11号</t>
+  </si>
+  <si>
+    <t>43032119780803559X</t>
+  </si>
+  <si>
+    <t>阳辉</t>
+  </si>
+  <si>
+    <t>51062319821018691X</t>
+  </si>
+  <si>
+    <t>侯军</t>
+  </si>
+  <si>
+    <t>北京市北京市房山区北京市房山区燕山杏花东路</t>
+  </si>
+  <si>
+    <t>袁小兵</t>
+  </si>
+  <si>
+    <t>广西南宁市宾阳县临浦街089号</t>
+  </si>
+  <si>
+    <t>罗康强</t>
+  </si>
+  <si>
+    <t>符国怀</t>
+  </si>
+  <si>
+    <t>王勇</t>
+  </si>
+  <si>
+    <t>浙江省宁波市余姚市丰山路398号B幢7楼</t>
+  </si>
+  <si>
+    <t>刘兴文</t>
+  </si>
+  <si>
+    <t>江西省九江市共青城市天虹商场四楼</t>
+  </si>
+  <si>
+    <t>王琰</t>
+  </si>
+  <si>
+    <t>四川省泸州市龙马潭区西南商贸城16区a201</t>
+  </si>
+  <si>
+    <t>林永波</t>
+  </si>
+  <si>
+    <t>辽宁省锦州市黑山县庞河经济开发区中山路1号</t>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t>浙江省温州市乐清市乐清市长乐路58号</t>
+  </si>
+  <si>
+    <t>徐倩倩</t>
+  </si>
+  <si>
+    <t>辽宁省沈阳市和平区太原街中华路98</t>
+  </si>
+  <si>
+    <t>张莹</t>
+  </si>
+  <si>
+    <t>刘占波</t>
+  </si>
+  <si>
+    <t>杨洪芬</t>
+  </si>
+  <si>
+    <t>四川省雅安市石棉县四川省石棉县电力路1号</t>
+  </si>
+  <si>
+    <t>向余刚</t>
+  </si>
+  <si>
+    <t>安徽省合肥市瑶海区和平路1414</t>
+  </si>
+  <si>
+    <t>王小明</t>
+  </si>
+  <si>
+    <t>许天福</t>
+  </si>
+  <si>
+    <t>山东省青岛市崂山区高科技工业园香港东路29号</t>
+  </si>
+  <si>
+    <t>宋丽娜</t>
+  </si>
+  <si>
+    <t>浙江省温州市泰顺县浙江省泰顺县雅阳镇福塔东路85号</t>
+  </si>
+  <si>
+    <t>李晓燕</t>
+  </si>
+  <si>
+    <t>温展栋</t>
+  </si>
+  <si>
+    <t>安徽省六安市裕安区恒生阳光城北门</t>
+  </si>
+  <si>
+    <t>吴大凯</t>
+  </si>
+  <si>
+    <t>宁夏银川市金凤区北京中路711号</t>
+  </si>
+  <si>
+    <t>马庆锋</t>
+  </si>
+  <si>
+    <t>福建省漳州市平和县华丰镇平湖路19号</t>
+  </si>
+  <si>
+    <t>欧阳斌</t>
+  </si>
+  <si>
+    <t>浙江省台州市三门县海游镇新兴街交叉口151号</t>
+  </si>
+  <si>
+    <t>章涛涛</t>
+  </si>
+  <si>
+    <t>福建省泉州市惠安县福建省泉州市惠安县黄塘镇</t>
+  </si>
+  <si>
+    <t>53252319980115042X</t>
+  </si>
+  <si>
+    <t>杨莲波</t>
+  </si>
+  <si>
+    <t>杜润涛</t>
+  </si>
+  <si>
+    <t>贵州省贵阳市云岩区北京路9号学术交流中心</t>
+  </si>
+  <si>
+    <t>陈鹏光</t>
+  </si>
+  <si>
+    <t>贵州省黔东南苗族侗族自治州镇远县贵州省黔东南州镇远县舞阳镇平冒街铭城花园3栋7号门面</t>
+  </si>
+  <si>
+    <t>龙秀阳</t>
+  </si>
+  <si>
+    <t>河南省新乡市牧野区宏力大道西冀场村</t>
+  </si>
+  <si>
+    <t>42088119860105401X</t>
+  </si>
+  <si>
+    <t>刘明友</t>
+  </si>
+  <si>
+    <t>赵天鹏</t>
+  </si>
+  <si>
+    <t>张佳宇</t>
+  </si>
+  <si>
+    <t>陕西省咸阳市秦都区统一路35号</t>
+  </si>
+  <si>
+    <t>王正平</t>
+  </si>
+  <si>
+    <t>上海市上海市杨浦区四平路1063号中天大厦1205</t>
+  </si>
+  <si>
+    <t>陶松</t>
+  </si>
+  <si>
+    <t>赵蕾</t>
+  </si>
+  <si>
+    <t>四川省成都市温江区南江路拉菲酒店八楼</t>
+  </si>
+  <si>
+    <t>阳四海</t>
+  </si>
+  <si>
+    <t>河北省唐山市路北区龙泽北路凤城阳光底商473号</t>
+  </si>
+  <si>
+    <t>蒋有德</t>
+  </si>
+  <si>
+    <t>江苏省无锡市崇安区永乐路水利大厦1408</t>
+  </si>
+  <si>
+    <t>韩海龙</t>
+  </si>
+  <si>
+    <t>湖南省长沙市开福区芙蓉北路199号</t>
+  </si>
+  <si>
+    <t>屠珮</t>
+  </si>
+  <si>
+    <t>辽宁省大连市瓦房店市长兴岛高尔夫球场</t>
+  </si>
+  <si>
+    <t>李成龙</t>
+  </si>
+  <si>
+    <t>浙江省湖州市长兴县雉城镇职教路136号</t>
+  </si>
+  <si>
+    <t>陈小霞</t>
+  </si>
+  <si>
+    <t>广东省汕头市澄海区溪南镇溪南工业区3栋</t>
+  </si>
+  <si>
+    <t>章育壮</t>
+  </si>
+  <si>
+    <t>白鹤柏</t>
+  </si>
+  <si>
+    <t>浙江省杭州市临安市锦城街道市坞村一号</t>
+  </si>
+  <si>
+    <t>蒋蔡福</t>
+  </si>
+  <si>
+    <t>山东省济南市章丘市山东省济南市章丘市秀水大街</t>
+  </si>
+  <si>
+    <t>黄吉峰</t>
+  </si>
+  <si>
+    <t>辽宁省大连市甘井子区甘井子区大连湾新街148号</t>
+  </si>
+  <si>
+    <t>张伟</t>
+  </si>
+  <si>
+    <t>河南省驻马店市平舆县东工业区四号</t>
+  </si>
+  <si>
+    <t>刘启飞</t>
+  </si>
+  <si>
+    <t>山东省聊城市莘县伊园街256号</t>
+  </si>
+  <si>
+    <t>37252319831008083X</t>
+  </si>
+  <si>
+    <t>岳宗宝</t>
+  </si>
+  <si>
+    <t>江苏省扬州市广陵区江苏省扬州市广陵区沙头镇迎宾西路8号</t>
+  </si>
+  <si>
+    <t>陈久国</t>
+  </si>
+  <si>
+    <t>江苏省宿迁市泗阳县大兴加油站对面</t>
+  </si>
+  <si>
+    <t>陈姝</t>
+  </si>
+  <si>
+    <t>湖南省娄底市双峰县湖南省双峰县320国道与210省道交汇处</t>
+  </si>
+  <si>
+    <t>王朴</t>
+  </si>
+  <si>
+    <t>四川省内江市东兴区汉安大道988号</t>
+  </si>
+  <si>
+    <t>51101119890923341X</t>
+  </si>
+  <si>
+    <t>邱磊</t>
+  </si>
+  <si>
+    <t>北京市北京市朝阳区朝阳国贸建外sohoA座1908</t>
+  </si>
+  <si>
+    <t>程思珏</t>
+  </si>
+  <si>
+    <t>山西省太原市小店区南中环街265号</t>
+  </si>
+  <si>
+    <t>14222319860423003X</t>
+  </si>
+  <si>
+    <t>杨子峰</t>
+  </si>
+  <si>
+    <t>广东省肇庆市广宁县南街镇城西路来发区八幢</t>
+  </si>
+  <si>
+    <t>44122319850910043X</t>
+  </si>
+  <si>
+    <t>黎照洪</t>
+  </si>
+  <si>
+    <t>浙江省台州市临海市杜桥镇大汾汾西工业区</t>
+  </si>
+  <si>
+    <t>王旦秋</t>
+  </si>
+  <si>
+    <t>广东省汕头市潮南区司马浦镇漫妮芬工业园</t>
+  </si>
+  <si>
+    <t>钟镇文</t>
+  </si>
+  <si>
+    <t>北京昌平区鼓楼大街</t>
+  </si>
+  <si>
+    <t>董志强</t>
+  </si>
+  <si>
+    <t>辽宁省大连市旅顺口区三涧堡街道洪家村</t>
+  </si>
+  <si>
+    <t>张青旭</t>
+  </si>
+  <si>
+    <t>广东省佛山市禅城区佛山市禅城区121号东江国际东誉物业管理公司</t>
+  </si>
+  <si>
+    <t>邱峰</t>
+  </si>
+  <si>
+    <t>陆小辉</t>
+  </si>
+  <si>
+    <t>广东省湛江市赤坎区广东省雷州市杨家镇黄桐管区1号</t>
+  </si>
+  <si>
+    <t>陈磊</t>
+  </si>
+  <si>
+    <t>北京市北京市东城区北京市东城区幸福大街57号</t>
+  </si>
+  <si>
+    <t>陈胜楠</t>
+  </si>
+  <si>
+    <t>广东省广州市白云区汇侨路65-67号107铺侨鑫物业租售部</t>
+  </si>
+  <si>
+    <t>胡润东</t>
+  </si>
+  <si>
+    <t>23270019901217415X</t>
+  </si>
+  <si>
+    <t>张达</t>
+  </si>
+  <si>
+    <t>胡明军</t>
+  </si>
+  <si>
+    <t>祁万峰</t>
+  </si>
+  <si>
+    <t>甘肃省兰州市七里河区七里河区兰工坪南街石油小区286</t>
+  </si>
+  <si>
+    <t>张海燕</t>
+  </si>
+  <si>
+    <t>甘肃省张掖市山丹县山丹县东泉嘉园南区</t>
+  </si>
+  <si>
+    <t>赵栋</t>
   </si>
 </sst>
 </file>
@@ -997,11 +2077,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1318,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700E77BE-334D-4544-BE2F-0504E6FD0929}">
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:XFD205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I430" sqref="I430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6936,6 +8019,5361 @@
         <v>43473.997916666667</v>
       </c>
     </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>668</v>
+      </c>
+      <c r="B331">
+        <v>18209367640</v>
+      </c>
+      <c r="C331" s="2">
+        <v>6.22E+17</v>
+      </c>
+      <c r="D331" t="s">
+        <v>667</v>
+      </c>
+      <c r="E331" s="1">
+        <v>43407.645833333336</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>666</v>
+      </c>
+      <c r="B332">
+        <v>15117157070</v>
+      </c>
+      <c r="C332" s="2">
+        <v>6.2E+17</v>
+      </c>
+      <c r="D332" t="s">
+        <v>665</v>
+      </c>
+      <c r="E332" s="1">
+        <v>43407.645833333336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>664</v>
+      </c>
+      <c r="B333">
+        <v>15142221611</v>
+      </c>
+      <c r="C333" s="2">
+        <v>2.1E+17</v>
+      </c>
+      <c r="D333" t="s">
+        <v>309</v>
+      </c>
+      <c r="E333" s="1">
+        <v>43407.645138888889</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>309</v>
+      </c>
+      <c r="B334">
+        <v>13434365369</v>
+      </c>
+      <c r="C334" t="s">
+        <v>309</v>
+      </c>
+      <c r="D334" t="s">
+        <v>309</v>
+      </c>
+      <c r="E334" s="1">
+        <v>43407.645138888889</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>663</v>
+      </c>
+      <c r="B335">
+        <v>15912576001</v>
+      </c>
+      <c r="C335" s="2">
+        <v>5.3E+17</v>
+      </c>
+      <c r="D335" t="s">
+        <v>309</v>
+      </c>
+      <c r="E335" s="1">
+        <v>43407.645138888889</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>662</v>
+      </c>
+      <c r="B336">
+        <v>13284577727</v>
+      </c>
+      <c r="C336" t="s">
+        <v>661</v>
+      </c>
+      <c r="D336" t="s">
+        <v>309</v>
+      </c>
+      <c r="E336" s="1">
+        <v>43407.645138888889</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>660</v>
+      </c>
+      <c r="B337">
+        <v>15516750930</v>
+      </c>
+      <c r="C337" s="2">
+        <v>4.13E+17</v>
+      </c>
+      <c r="D337" t="s">
+        <v>659</v>
+      </c>
+      <c r="E337" s="1">
+        <v>43407.645138888889</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>658</v>
+      </c>
+      <c r="B338">
+        <v>13933901470</v>
+      </c>
+      <c r="C338" s="2">
+        <v>1.3E+17</v>
+      </c>
+      <c r="D338" t="s">
+        <v>657</v>
+      </c>
+      <c r="E338" s="1">
+        <v>43407.645138888889</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>656</v>
+      </c>
+      <c r="B339">
+        <v>15113612897</v>
+      </c>
+      <c r="C339" s="2">
+        <v>4.41E+17</v>
+      </c>
+      <c r="D339" t="s">
+        <v>655</v>
+      </c>
+      <c r="E339" s="1">
+        <v>43407.644444444442</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>654</v>
+      </c>
+      <c r="B340">
+        <v>18641189136</v>
+      </c>
+      <c r="C340" s="2">
+        <v>3.41E+17</v>
+      </c>
+      <c r="D340" t="s">
+        <v>309</v>
+      </c>
+      <c r="E340" s="1">
+        <v>43407.643750000003</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>653</v>
+      </c>
+      <c r="B341">
+        <v>13536664819</v>
+      </c>
+      <c r="C341" s="2">
+        <v>3.6E+17</v>
+      </c>
+      <c r="D341" t="s">
+        <v>652</v>
+      </c>
+      <c r="E341" s="1">
+        <v>43407.643750000003</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>651</v>
+      </c>
+      <c r="B342">
+        <v>13591371483</v>
+      </c>
+      <c r="C342" s="2">
+        <v>2.1E+17</v>
+      </c>
+      <c r="D342" t="s">
+        <v>650</v>
+      </c>
+      <c r="E342" s="1">
+        <v>43407.643750000003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>309</v>
+      </c>
+      <c r="B343">
+        <v>17666592211</v>
+      </c>
+      <c r="C343" t="s">
+        <v>309</v>
+      </c>
+      <c r="D343" t="s">
+        <v>309</v>
+      </c>
+      <c r="E343" s="1">
+        <v>43407.643055555556</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>649</v>
+      </c>
+      <c r="B344">
+        <v>13511080830</v>
+      </c>
+      <c r="C344" s="2">
+        <v>1.53E+17</v>
+      </c>
+      <c r="D344" t="s">
+        <v>648</v>
+      </c>
+      <c r="E344" s="1">
+        <v>43407.643055555556</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>309</v>
+      </c>
+      <c r="B345">
+        <v>15238622928</v>
+      </c>
+      <c r="C345" t="s">
+        <v>309</v>
+      </c>
+      <c r="D345" t="s">
+        <v>309</v>
+      </c>
+      <c r="E345" s="1">
+        <v>43407.643055555556</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>647</v>
+      </c>
+      <c r="B346">
+        <v>15718370231</v>
+      </c>
+      <c r="C346" s="2">
+        <v>4.45E+17</v>
+      </c>
+      <c r="D346" t="s">
+        <v>646</v>
+      </c>
+      <c r="E346" s="1">
+        <v>43407.643055555556</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>309</v>
+      </c>
+      <c r="B347">
+        <v>13587133571</v>
+      </c>
+      <c r="C347" t="s">
+        <v>309</v>
+      </c>
+      <c r="D347" t="s">
+        <v>309</v>
+      </c>
+      <c r="E347" s="1">
+        <v>43407.642361111109</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>309</v>
+      </c>
+      <c r="B348">
+        <v>13555984593</v>
+      </c>
+      <c r="C348" t="s">
+        <v>309</v>
+      </c>
+      <c r="D348" t="s">
+        <v>309</v>
+      </c>
+      <c r="E348" s="1">
+        <v>43407.642361111109</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>645</v>
+      </c>
+      <c r="B349">
+        <v>13732327056</v>
+      </c>
+      <c r="C349" s="2">
+        <v>5.13E+17</v>
+      </c>
+      <c r="D349" t="s">
+        <v>644</v>
+      </c>
+      <c r="E349" s="1">
+        <v>43407.64166666667</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>309</v>
+      </c>
+      <c r="B350">
+        <v>18089117040</v>
+      </c>
+      <c r="C350" t="s">
+        <v>309</v>
+      </c>
+      <c r="D350" t="s">
+        <v>309</v>
+      </c>
+      <c r="E350" s="1">
+        <v>43407.64166666667</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>643</v>
+      </c>
+      <c r="B351">
+        <v>13426979717</v>
+      </c>
+      <c r="C351" t="s">
+        <v>642</v>
+      </c>
+      <c r="D351" t="s">
+        <v>641</v>
+      </c>
+      <c r="E351" s="1">
+        <v>43407.64166666667</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>640</v>
+      </c>
+      <c r="B352">
+        <v>13803439997</v>
+      </c>
+      <c r="C352" t="s">
+        <v>639</v>
+      </c>
+      <c r="D352" t="s">
+        <v>638</v>
+      </c>
+      <c r="E352" s="1">
+        <v>43407.640972222223</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>309</v>
+      </c>
+      <c r="B353">
+        <v>13672466867</v>
+      </c>
+      <c r="C353" t="s">
+        <v>309</v>
+      </c>
+      <c r="D353" t="s">
+        <v>309</v>
+      </c>
+      <c r="E353" s="1">
+        <v>43407.640972222223</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>309</v>
+      </c>
+      <c r="B354">
+        <v>13439139626</v>
+      </c>
+      <c r="C354" t="s">
+        <v>309</v>
+      </c>
+      <c r="D354" t="s">
+        <v>309</v>
+      </c>
+      <c r="E354" s="1">
+        <v>43407.640277777777</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>637</v>
+      </c>
+      <c r="B355">
+        <v>15010157302</v>
+      </c>
+      <c r="C355" s="2">
+        <v>2.11E+17</v>
+      </c>
+      <c r="D355" t="s">
+        <v>636</v>
+      </c>
+      <c r="E355" s="1">
+        <v>43407.640277777777</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>635</v>
+      </c>
+      <c r="B356">
+        <v>15928870803</v>
+      </c>
+      <c r="C356" t="s">
+        <v>634</v>
+      </c>
+      <c r="D356" t="s">
+        <v>633</v>
+      </c>
+      <c r="E356" s="1">
+        <v>43407.63958333333</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>632</v>
+      </c>
+      <c r="B357">
+        <v>14773832437</v>
+      </c>
+      <c r="C357" s="2">
+        <v>4.33E+17</v>
+      </c>
+      <c r="D357" t="s">
+        <v>631</v>
+      </c>
+      <c r="E357" s="1">
+        <v>43407.63958333333</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>630</v>
+      </c>
+      <c r="B358">
+        <v>18851533854</v>
+      </c>
+      <c r="C358" s="2">
+        <v>3.21E+17</v>
+      </c>
+      <c r="D358" t="s">
+        <v>629</v>
+      </c>
+      <c r="E358" s="1">
+        <v>43407.638888888891</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>309</v>
+      </c>
+      <c r="B359">
+        <v>15557627618</v>
+      </c>
+      <c r="C359" t="s">
+        <v>309</v>
+      </c>
+      <c r="D359" t="s">
+        <v>309</v>
+      </c>
+      <c r="E359" s="1">
+        <v>43407.638888888891</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>309</v>
+      </c>
+      <c r="B360">
+        <v>15807656268</v>
+      </c>
+      <c r="C360" t="s">
+        <v>309</v>
+      </c>
+      <c r="D360" t="s">
+        <v>309</v>
+      </c>
+      <c r="E360" s="1">
+        <v>43407.638194444444</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>628</v>
+      </c>
+      <c r="B361">
+        <v>13952795117</v>
+      </c>
+      <c r="C361" s="2">
+        <v>3.21E+17</v>
+      </c>
+      <c r="D361" t="s">
+        <v>627</v>
+      </c>
+      <c r="E361" s="1">
+        <v>43407.638194444444</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>309</v>
+      </c>
+      <c r="B362">
+        <v>18620600369</v>
+      </c>
+      <c r="C362" t="s">
+        <v>309</v>
+      </c>
+      <c r="D362" t="s">
+        <v>309</v>
+      </c>
+      <c r="E362" s="1">
+        <v>43407.637499999997</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>626</v>
+      </c>
+      <c r="B363">
+        <v>13963546555</v>
+      </c>
+      <c r="C363" t="s">
+        <v>625</v>
+      </c>
+      <c r="D363" t="s">
+        <v>624</v>
+      </c>
+      <c r="E363" s="1">
+        <v>43407.637499999997</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>309</v>
+      </c>
+      <c r="B364">
+        <v>13689977671</v>
+      </c>
+      <c r="C364" t="s">
+        <v>309</v>
+      </c>
+      <c r="D364" t="s">
+        <v>309</v>
+      </c>
+      <c r="E364" s="1">
+        <v>43407.637499999997</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>623</v>
+      </c>
+      <c r="B365">
+        <v>18838517921</v>
+      </c>
+      <c r="C365" s="2">
+        <v>4.13E+17</v>
+      </c>
+      <c r="D365" t="s">
+        <v>622</v>
+      </c>
+      <c r="E365" s="1">
+        <v>43407.636805555558</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>621</v>
+      </c>
+      <c r="B366">
+        <v>15140672133</v>
+      </c>
+      <c r="C366" s="2">
+        <v>2.1E+17</v>
+      </c>
+      <c r="D366" t="s">
+        <v>620</v>
+      </c>
+      <c r="E366" s="1">
+        <v>43407.636805555558</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>619</v>
+      </c>
+      <c r="B367">
+        <v>18053193851</v>
+      </c>
+      <c r="C367" s="2">
+        <v>3.7E+17</v>
+      </c>
+      <c r="D367" t="s">
+        <v>618</v>
+      </c>
+      <c r="E367" s="1">
+        <v>43407.636111111111</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>309</v>
+      </c>
+      <c r="B368">
+        <v>18283180850</v>
+      </c>
+      <c r="C368" t="s">
+        <v>309</v>
+      </c>
+      <c r="D368" t="s">
+        <v>309</v>
+      </c>
+      <c r="E368" s="1">
+        <v>43407.635416666664</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>617</v>
+      </c>
+      <c r="B369">
+        <v>18814804367</v>
+      </c>
+      <c r="C369" s="2">
+        <v>3.3E+17</v>
+      </c>
+      <c r="D369" t="s">
+        <v>616</v>
+      </c>
+      <c r="E369" s="1">
+        <v>43407.634722222225</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>615</v>
+      </c>
+      <c r="B370">
+        <v>13322344199</v>
+      </c>
+      <c r="C370" s="2">
+        <v>2.11E+17</v>
+      </c>
+      <c r="D370" t="s">
+        <v>309</v>
+      </c>
+      <c r="E370" s="1">
+        <v>43407.634722222225</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>614</v>
+      </c>
+      <c r="B371">
+        <v>13502721114</v>
+      </c>
+      <c r="C371" s="2">
+        <v>4.41E+17</v>
+      </c>
+      <c r="D371" t="s">
+        <v>613</v>
+      </c>
+      <c r="E371" s="1">
+        <v>43407.634722222225</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>612</v>
+      </c>
+      <c r="B372">
+        <v>13738235138</v>
+      </c>
+      <c r="C372" s="2">
+        <v>4.31E+17</v>
+      </c>
+      <c r="D372" t="s">
+        <v>611</v>
+      </c>
+      <c r="E372" s="1">
+        <v>43407.634027777778</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>610</v>
+      </c>
+      <c r="B373">
+        <v>17695634494</v>
+      </c>
+      <c r="C373" s="2">
+        <v>1.52E+17</v>
+      </c>
+      <c r="D373" t="s">
+        <v>609</v>
+      </c>
+      <c r="E373" s="1">
+        <v>43407.633333333331</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>608</v>
+      </c>
+      <c r="B374">
+        <v>13507317181</v>
+      </c>
+      <c r="C374" s="2">
+        <v>4.3E+17</v>
+      </c>
+      <c r="D374" t="s">
+        <v>607</v>
+      </c>
+      <c r="E374" s="1">
+        <v>43407.633333333331</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>606</v>
+      </c>
+      <c r="B375">
+        <v>18262255699</v>
+      </c>
+      <c r="C375" s="2">
+        <v>3.71E+17</v>
+      </c>
+      <c r="D375" t="s">
+        <v>605</v>
+      </c>
+      <c r="E375" s="1">
+        <v>43407.633333333331</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>309</v>
+      </c>
+      <c r="B376">
+        <v>13697502912</v>
+      </c>
+      <c r="C376" t="s">
+        <v>309</v>
+      </c>
+      <c r="D376" t="s">
+        <v>309</v>
+      </c>
+      <c r="E376" s="1">
+        <v>43407.632638888892</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>604</v>
+      </c>
+      <c r="B377">
+        <v>13901261490</v>
+      </c>
+      <c r="C377" s="2">
+        <v>2.2E+17</v>
+      </c>
+      <c r="D377" t="s">
+        <v>603</v>
+      </c>
+      <c r="E377" s="1">
+        <v>43407.631944444445</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>602</v>
+      </c>
+      <c r="B378">
+        <v>13551384921</v>
+      </c>
+      <c r="C378" s="2">
+        <v>5.11E+17</v>
+      </c>
+      <c r="D378" t="s">
+        <v>601</v>
+      </c>
+      <c r="E378" s="1">
+        <v>43407.631944444445</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>309</v>
+      </c>
+      <c r="B379">
+        <v>13640968757</v>
+      </c>
+      <c r="C379" t="s">
+        <v>309</v>
+      </c>
+      <c r="D379" t="s">
+        <v>309</v>
+      </c>
+      <c r="E379" s="1">
+        <v>43407.631944444445</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>309</v>
+      </c>
+      <c r="B380">
+        <v>15212906300</v>
+      </c>
+      <c r="C380" t="s">
+        <v>309</v>
+      </c>
+      <c r="D380" t="s">
+        <v>309</v>
+      </c>
+      <c r="E380" s="1">
+        <v>43407.631249999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>600</v>
+      </c>
+      <c r="B381">
+        <v>15099491810</v>
+      </c>
+      <c r="C381" s="2">
+        <v>6.53E+17</v>
+      </c>
+      <c r="D381" t="s">
+        <v>309</v>
+      </c>
+      <c r="E381" s="1">
+        <v>43407.631249999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>599</v>
+      </c>
+      <c r="B382">
+        <v>13898117462</v>
+      </c>
+      <c r="C382" s="2">
+        <v>2.1E+17</v>
+      </c>
+      <c r="D382" t="s">
+        <v>598</v>
+      </c>
+      <c r="E382" s="1">
+        <v>43407.631249999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>309</v>
+      </c>
+      <c r="B383">
+        <v>18681170455</v>
+      </c>
+      <c r="C383" t="s">
+        <v>309</v>
+      </c>
+      <c r="D383" t="s">
+        <v>309</v>
+      </c>
+      <c r="E383" s="1">
+        <v>43407.630555555559</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>309</v>
+      </c>
+      <c r="B384">
+        <v>18666040438</v>
+      </c>
+      <c r="C384" t="s">
+        <v>309</v>
+      </c>
+      <c r="D384" t="s">
+        <v>309</v>
+      </c>
+      <c r="E384" s="1">
+        <v>43407.629861111112</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>597</v>
+      </c>
+      <c r="B385">
+        <v>18509237377</v>
+      </c>
+      <c r="C385" s="2">
+        <v>4.1E+17</v>
+      </c>
+      <c r="D385" t="s">
+        <v>596</v>
+      </c>
+      <c r="E385" s="1">
+        <v>43407.629861111112</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>595</v>
+      </c>
+      <c r="B386">
+        <v>18526491666</v>
+      </c>
+      <c r="C386" s="2">
+        <v>1.2E+17</v>
+      </c>
+      <c r="D386" t="s">
+        <v>309</v>
+      </c>
+      <c r="E386" s="1">
+        <v>43407.629166666666</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>309</v>
+      </c>
+      <c r="B387">
+        <v>18219724937</v>
+      </c>
+      <c r="C387" t="s">
+        <v>309</v>
+      </c>
+      <c r="D387" t="s">
+        <v>309</v>
+      </c>
+      <c r="E387" s="1">
+        <v>43407.629166666666</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>309</v>
+      </c>
+      <c r="B388">
+        <v>15162420368</v>
+      </c>
+      <c r="C388" t="s">
+        <v>309</v>
+      </c>
+      <c r="D388" t="s">
+        <v>309</v>
+      </c>
+      <c r="E388" s="1">
+        <v>43407.629166666666</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>594</v>
+      </c>
+      <c r="B389">
+        <v>15898322198</v>
+      </c>
+      <c r="C389" s="2">
+        <v>2.31E+17</v>
+      </c>
+      <c r="D389" t="s">
+        <v>309</v>
+      </c>
+      <c r="E389" s="1">
+        <v>43407.628472222219</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>309</v>
+      </c>
+      <c r="B390">
+        <v>13522157964</v>
+      </c>
+      <c r="C390" t="s">
+        <v>309</v>
+      </c>
+      <c r="D390" t="s">
+        <v>309</v>
+      </c>
+      <c r="E390" s="1">
+        <v>43407.628472222219</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>593</v>
+      </c>
+      <c r="B391">
+        <v>18224582664</v>
+      </c>
+      <c r="C391" t="s">
+        <v>592</v>
+      </c>
+      <c r="D391" t="s">
+        <v>591</v>
+      </c>
+      <c r="E391" s="1">
+        <v>43407.62777777778</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>309</v>
+      </c>
+      <c r="B392">
+        <v>17612078597</v>
+      </c>
+      <c r="C392" t="s">
+        <v>309</v>
+      </c>
+      <c r="D392" t="s">
+        <v>309</v>
+      </c>
+      <c r="E392" s="1">
+        <v>43407.62777777778</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>309</v>
+      </c>
+      <c r="B393">
+        <v>18571554715</v>
+      </c>
+      <c r="C393" t="s">
+        <v>309</v>
+      </c>
+      <c r="D393" t="s">
+        <v>309</v>
+      </c>
+      <c r="E393" s="1">
+        <v>43407.627083333333</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>309</v>
+      </c>
+      <c r="B394">
+        <v>15083119262</v>
+      </c>
+      <c r="C394" t="s">
+        <v>309</v>
+      </c>
+      <c r="D394" t="s">
+        <v>309</v>
+      </c>
+      <c r="E394" s="1">
+        <v>43407.627083333333</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>590</v>
+      </c>
+      <c r="B395">
+        <v>18285522940</v>
+      </c>
+      <c r="C395" s="2">
+        <v>5.23E+17</v>
+      </c>
+      <c r="D395" t="s">
+        <v>589</v>
+      </c>
+      <c r="E395" s="1">
+        <v>43407.626388888886</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>588</v>
+      </c>
+      <c r="B396">
+        <v>13594013057</v>
+      </c>
+      <c r="C396" s="2">
+        <v>5.22E+17</v>
+      </c>
+      <c r="D396" t="s">
+        <v>587</v>
+      </c>
+      <c r="E396" s="1">
+        <v>43407.625694444447</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>586</v>
+      </c>
+      <c r="B397">
+        <v>18582902620</v>
+      </c>
+      <c r="C397" s="2">
+        <v>5.1E+17</v>
+      </c>
+      <c r="D397" t="s">
+        <v>309</v>
+      </c>
+      <c r="E397" s="1">
+        <v>43407.625694444447</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>585</v>
+      </c>
+      <c r="B398">
+        <v>18387334521</v>
+      </c>
+      <c r="C398" t="s">
+        <v>584</v>
+      </c>
+      <c r="D398" t="s">
+        <v>583</v>
+      </c>
+      <c r="E398" s="1">
+        <v>43407.625694444447</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>582</v>
+      </c>
+      <c r="B399">
+        <v>15057633997</v>
+      </c>
+      <c r="C399" s="2">
+        <v>3.31E+17</v>
+      </c>
+      <c r="D399" t="s">
+        <v>581</v>
+      </c>
+      <c r="E399" s="1">
+        <v>43407.625</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>309</v>
+      </c>
+      <c r="B400">
+        <v>13400567731</v>
+      </c>
+      <c r="C400" t="s">
+        <v>309</v>
+      </c>
+      <c r="D400" t="s">
+        <v>309</v>
+      </c>
+      <c r="E400" s="1">
+        <v>43407.624305555553</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>309</v>
+      </c>
+      <c r="B401">
+        <v>13408589185</v>
+      </c>
+      <c r="C401" t="s">
+        <v>309</v>
+      </c>
+      <c r="D401" t="s">
+        <v>309</v>
+      </c>
+      <c r="E401" s="1">
+        <v>43407.624305555553</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>580</v>
+      </c>
+      <c r="B402">
+        <v>18259629108</v>
+      </c>
+      <c r="C402" s="2">
+        <v>3.51E+17</v>
+      </c>
+      <c r="D402" t="s">
+        <v>579</v>
+      </c>
+      <c r="E402" s="1">
+        <v>43407.623611111114</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>578</v>
+      </c>
+      <c r="B403">
+        <v>13895478363</v>
+      </c>
+      <c r="C403" s="2">
+        <v>6.4E+17</v>
+      </c>
+      <c r="D403" t="s">
+        <v>577</v>
+      </c>
+      <c r="E403" s="1">
+        <v>43407.623611111114</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>576</v>
+      </c>
+      <c r="B404">
+        <v>15856462371</v>
+      </c>
+      <c r="C404" s="2">
+        <v>3.42E+17</v>
+      </c>
+      <c r="D404" t="s">
+        <v>575</v>
+      </c>
+      <c r="E404" s="1">
+        <v>43407.623611111114</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>309</v>
+      </c>
+      <c r="B405">
+        <v>13451990341</v>
+      </c>
+      <c r="C405" t="s">
+        <v>309</v>
+      </c>
+      <c r="D405" t="s">
+        <v>309</v>
+      </c>
+      <c r="E405" s="1">
+        <v>43407.621527777781</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>574</v>
+      </c>
+      <c r="B406">
+        <v>14718431660</v>
+      </c>
+      <c r="C406" s="2">
+        <v>4.41E+17</v>
+      </c>
+      <c r="D406" t="s">
+        <v>309</v>
+      </c>
+      <c r="E406" s="1">
+        <v>43407.620833333334</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>309</v>
+      </c>
+      <c r="B407">
+        <v>15885437403</v>
+      </c>
+      <c r="C407" t="s">
+        <v>309</v>
+      </c>
+      <c r="D407" t="s">
+        <v>309</v>
+      </c>
+      <c r="E407" s="1">
+        <v>43407.618750000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>309</v>
+      </c>
+      <c r="B408">
+        <v>18878843373</v>
+      </c>
+      <c r="C408" t="s">
+        <v>309</v>
+      </c>
+      <c r="D408" t="s">
+        <v>309</v>
+      </c>
+      <c r="E408" s="1">
+        <v>43407.618750000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>573</v>
+      </c>
+      <c r="B409">
+        <v>18657756660</v>
+      </c>
+      <c r="C409" s="2">
+        <v>3.3E+17</v>
+      </c>
+      <c r="D409" t="s">
+        <v>572</v>
+      </c>
+      <c r="E409" s="1">
+        <v>43407.618055555555</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>571</v>
+      </c>
+      <c r="B410">
+        <v>18866248978</v>
+      </c>
+      <c r="C410" s="2">
+        <v>3.71E+17</v>
+      </c>
+      <c r="D410" t="s">
+        <v>570</v>
+      </c>
+      <c r="E410" s="1">
+        <v>43407.618055555555</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>569</v>
+      </c>
+      <c r="B411">
+        <v>13003864596</v>
+      </c>
+      <c r="C411" s="2">
+        <v>3.5E+17</v>
+      </c>
+      <c r="D411" t="s">
+        <v>309</v>
+      </c>
+      <c r="E411" s="1">
+        <v>43407.617361111108</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>309</v>
+      </c>
+      <c r="B412">
+        <v>15282154353</v>
+      </c>
+      <c r="C412" t="s">
+        <v>309</v>
+      </c>
+      <c r="D412" t="s">
+        <v>309</v>
+      </c>
+      <c r="E412" s="1">
+        <v>43407.617361111108</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>568</v>
+      </c>
+      <c r="B413">
+        <v>13909690879</v>
+      </c>
+      <c r="C413" s="2">
+        <v>3.4E+17</v>
+      </c>
+      <c r="D413" t="s">
+        <v>567</v>
+      </c>
+      <c r="E413" s="1">
+        <v>43407.616666666669</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>566</v>
+      </c>
+      <c r="B414">
+        <v>13981632851</v>
+      </c>
+      <c r="C414" s="2">
+        <v>5.13E+17</v>
+      </c>
+      <c r="D414" t="s">
+        <v>565</v>
+      </c>
+      <c r="E414" s="1">
+        <v>43407.616666666669</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>309</v>
+      </c>
+      <c r="B415">
+        <v>13661452218</v>
+      </c>
+      <c r="C415" t="s">
+        <v>309</v>
+      </c>
+      <c r="D415" t="s">
+        <v>309</v>
+      </c>
+      <c r="E415" s="1">
+        <v>43407.616666666669</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>309</v>
+      </c>
+      <c r="B416">
+        <v>17605603217</v>
+      </c>
+      <c r="C416" t="s">
+        <v>309</v>
+      </c>
+      <c r="D416" t="s">
+        <v>309</v>
+      </c>
+      <c r="E416" s="1">
+        <v>43407.615972222222</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>564</v>
+      </c>
+      <c r="B417">
+        <v>18076190311</v>
+      </c>
+      <c r="C417" s="2">
+        <v>5.22E+17</v>
+      </c>
+      <c r="D417" t="s">
+        <v>309</v>
+      </c>
+      <c r="E417" s="1">
+        <v>43407.615277777775</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>309</v>
+      </c>
+      <c r="B418">
+        <v>15695419444</v>
+      </c>
+      <c r="C418" t="s">
+        <v>309</v>
+      </c>
+      <c r="D418" t="s">
+        <v>309</v>
+      </c>
+      <c r="E418" s="1">
+        <v>43407.614583333336</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>309</v>
+      </c>
+      <c r="B419">
+        <v>13911407392</v>
+      </c>
+      <c r="C419" t="s">
+        <v>309</v>
+      </c>
+      <c r="D419" t="s">
+        <v>309</v>
+      </c>
+      <c r="E419" s="1">
+        <v>43407.614583333336</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>309</v>
+      </c>
+      <c r="B420">
+        <v>13751278707</v>
+      </c>
+      <c r="C420" t="s">
+        <v>309</v>
+      </c>
+      <c r="D420" t="s">
+        <v>309</v>
+      </c>
+      <c r="E420" s="1">
+        <v>43407.613888888889</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>563</v>
+      </c>
+      <c r="B421">
+        <v>13624896478</v>
+      </c>
+      <c r="C421" s="2">
+        <v>2.11E+17</v>
+      </c>
+      <c r="D421" t="s">
+        <v>309</v>
+      </c>
+      <c r="E421" s="1">
+        <v>43407.613888888889</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>309</v>
+      </c>
+      <c r="B422">
+        <v>13663642882</v>
+      </c>
+      <c r="C422" t="s">
+        <v>309</v>
+      </c>
+      <c r="D422" t="s">
+        <v>309</v>
+      </c>
+      <c r="E422" s="1">
+        <v>43407.613194444442</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>309</v>
+      </c>
+      <c r="B423">
+        <v>18607185872</v>
+      </c>
+      <c r="C423" t="s">
+        <v>309</v>
+      </c>
+      <c r="D423" t="s">
+        <v>309</v>
+      </c>
+      <c r="E423" s="1">
+        <v>43407.612500000003</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>309</v>
+      </c>
+      <c r="B424">
+        <v>18597948653</v>
+      </c>
+      <c r="C424" t="s">
+        <v>309</v>
+      </c>
+      <c r="D424" t="s">
+        <v>309</v>
+      </c>
+      <c r="E424" s="1">
+        <v>43407.612500000003</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>562</v>
+      </c>
+      <c r="B425">
+        <v>18340270404</v>
+      </c>
+      <c r="C425" s="2">
+        <v>2.11E+17</v>
+      </c>
+      <c r="D425" t="s">
+        <v>561</v>
+      </c>
+      <c r="E425" s="1">
+        <v>43407.612500000003</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>560</v>
+      </c>
+      <c r="B426">
+        <v>13706661055</v>
+      </c>
+      <c r="C426" s="2">
+        <v>3.3E+17</v>
+      </c>
+      <c r="D426" t="s">
+        <v>559</v>
+      </c>
+      <c r="E426" s="1">
+        <v>43407.611111111109</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>309</v>
+      </c>
+      <c r="B427">
+        <v>13362641333</v>
+      </c>
+      <c r="C427" t="s">
+        <v>309</v>
+      </c>
+      <c r="D427" t="s">
+        <v>309</v>
+      </c>
+      <c r="E427" s="1">
+        <v>43407.611111111109</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>309</v>
+      </c>
+      <c r="B428">
+        <v>18889540406</v>
+      </c>
+      <c r="C428" t="s">
+        <v>309</v>
+      </c>
+      <c r="D428" t="s">
+        <v>309</v>
+      </c>
+      <c r="E428" s="1">
+        <v>43407.61041666667</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>558</v>
+      </c>
+      <c r="B429">
+        <v>13500468769</v>
+      </c>
+      <c r="C429" s="2">
+        <v>2.11E+17</v>
+      </c>
+      <c r="D429" t="s">
+        <v>557</v>
+      </c>
+      <c r="E429" s="1">
+        <v>43407.609722222223</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>309</v>
+      </c>
+      <c r="B430">
+        <v>13581357939</v>
+      </c>
+      <c r="C430" t="s">
+        <v>309</v>
+      </c>
+      <c r="D430" t="s">
+        <v>309</v>
+      </c>
+      <c r="E430" s="1">
+        <v>43407.60833333333</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>556</v>
+      </c>
+      <c r="B431">
+        <v>13687289041</v>
+      </c>
+      <c r="C431" s="2">
+        <v>5.11E+17</v>
+      </c>
+      <c r="D431" t="s">
+        <v>555</v>
+      </c>
+      <c r="E431" s="1">
+        <v>43407.60833333333</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>554</v>
+      </c>
+      <c r="B432">
+        <v>17346600599</v>
+      </c>
+      <c r="C432" s="2">
+        <v>3.42E+17</v>
+      </c>
+      <c r="D432" t="s">
+        <v>553</v>
+      </c>
+      <c r="E432" s="1">
+        <v>43407.607638888891</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>309</v>
+      </c>
+      <c r="B433">
+        <v>15188958044</v>
+      </c>
+      <c r="C433" t="s">
+        <v>309</v>
+      </c>
+      <c r="D433" t="s">
+        <v>309</v>
+      </c>
+      <c r="E433" s="1">
+        <v>43407.606944444444</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>309</v>
+      </c>
+      <c r="B434">
+        <v>18454258879</v>
+      </c>
+      <c r="C434" t="s">
+        <v>309</v>
+      </c>
+      <c r="D434" t="s">
+        <v>309</v>
+      </c>
+      <c r="E434" s="1">
+        <v>43407.606944444444</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>552</v>
+      </c>
+      <c r="B435">
+        <v>18667883168</v>
+      </c>
+      <c r="C435" s="2">
+        <v>4.21E+17</v>
+      </c>
+      <c r="D435" t="s">
+        <v>551</v>
+      </c>
+      <c r="E435" s="1">
+        <v>43407.606944444444</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>550</v>
+      </c>
+      <c r="B436">
+        <v>14785535260</v>
+      </c>
+      <c r="C436" s="2">
+        <v>5.22E+17</v>
+      </c>
+      <c r="D436" t="s">
+        <v>309</v>
+      </c>
+      <c r="E436" s="1">
+        <v>43407.606944444444</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>549</v>
+      </c>
+      <c r="B437">
+        <v>13976023354</v>
+      </c>
+      <c r="C437" s="2">
+        <v>4.6E+17</v>
+      </c>
+      <c r="D437" t="s">
+        <v>309</v>
+      </c>
+      <c r="E437" s="1">
+        <v>43407.606249999997</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>548</v>
+      </c>
+      <c r="B438">
+        <v>17877145506</v>
+      </c>
+      <c r="C438" s="2">
+        <v>4.52E+17</v>
+      </c>
+      <c r="D438" t="s">
+        <v>547</v>
+      </c>
+      <c r="E438" s="1">
+        <v>43407.605555555558</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>546</v>
+      </c>
+      <c r="B439">
+        <v>18573777797</v>
+      </c>
+      <c r="C439" s="2">
+        <v>4.3E+17</v>
+      </c>
+      <c r="D439" t="s">
+        <v>309</v>
+      </c>
+      <c r="E439" s="1">
+        <v>43407.604861111111</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>128</v>
+      </c>
+      <c r="B440">
+        <v>13671361536</v>
+      </c>
+      <c r="C440" s="2">
+        <v>1.1E+17</v>
+      </c>
+      <c r="D440" t="s">
+        <v>545</v>
+      </c>
+      <c r="E440" s="1">
+        <v>43407.604166666664</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>544</v>
+      </c>
+      <c r="B441">
+        <v>13540310603</v>
+      </c>
+      <c r="C441" t="s">
+        <v>543</v>
+      </c>
+      <c r="D441" t="s">
+        <v>309</v>
+      </c>
+      <c r="E441" s="1">
+        <v>43407.604166666664</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>309</v>
+      </c>
+      <c r="B442">
+        <v>18377007279</v>
+      </c>
+      <c r="C442" t="s">
+        <v>309</v>
+      </c>
+      <c r="D442" t="s">
+        <v>309</v>
+      </c>
+      <c r="E442" s="1">
+        <v>43407.603472222225</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>542</v>
+      </c>
+      <c r="B443">
+        <v>13873271583</v>
+      </c>
+      <c r="C443" t="s">
+        <v>541</v>
+      </c>
+      <c r="D443" t="s">
+        <v>540</v>
+      </c>
+      <c r="E443" s="1">
+        <v>43407.602777777778</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>539</v>
+      </c>
+      <c r="B444">
+        <v>15818380701</v>
+      </c>
+      <c r="C444" s="2">
+        <v>5.33E+17</v>
+      </c>
+      <c r="D444" t="s">
+        <v>538</v>
+      </c>
+      <c r="E444" s="1">
+        <v>43407.602083333331</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>309</v>
+      </c>
+      <c r="B445">
+        <v>13406443244</v>
+      </c>
+      <c r="C445" t="s">
+        <v>309</v>
+      </c>
+      <c r="D445" t="s">
+        <v>309</v>
+      </c>
+      <c r="E445" s="1">
+        <v>43407.602083333331</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>309</v>
+      </c>
+      <c r="B446">
+        <v>15808841882</v>
+      </c>
+      <c r="C446" t="s">
+        <v>309</v>
+      </c>
+      <c r="D446" t="s">
+        <v>309</v>
+      </c>
+      <c r="E446" s="1">
+        <v>43407.601388888892</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>537</v>
+      </c>
+      <c r="B447">
+        <v>13769508985</v>
+      </c>
+      <c r="C447" s="2">
+        <v>5.3E+17</v>
+      </c>
+      <c r="D447" t="s">
+        <v>309</v>
+      </c>
+      <c r="E447" s="1">
+        <v>43407.601388888892</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>536</v>
+      </c>
+      <c r="B448">
+        <v>18107077165</v>
+      </c>
+      <c r="C448" s="2">
+        <v>5.23E+17</v>
+      </c>
+      <c r="D448" t="s">
+        <v>535</v>
+      </c>
+      <c r="E448" s="1">
+        <v>43407.601388888892</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>534</v>
+      </c>
+      <c r="B449">
+        <v>15123422900</v>
+      </c>
+      <c r="C449" s="2">
+        <v>5.12E+17</v>
+      </c>
+      <c r="D449" t="s">
+        <v>533</v>
+      </c>
+      <c r="E449" s="1">
+        <v>43407.601388888892</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>309</v>
+      </c>
+      <c r="B450">
+        <v>18313292730</v>
+      </c>
+      <c r="C450" t="s">
+        <v>309</v>
+      </c>
+      <c r="D450" t="s">
+        <v>309</v>
+      </c>
+      <c r="E450" s="1">
+        <v>43407.600694444445</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>532</v>
+      </c>
+      <c r="B451">
+        <v>15575444561</v>
+      </c>
+      <c r="C451" s="2">
+        <v>4.3E+17</v>
+      </c>
+      <c r="D451" t="s">
+        <v>531</v>
+      </c>
+      <c r="E451" s="1">
+        <v>43407.600694444445</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>309</v>
+      </c>
+      <c r="B452">
+        <v>15707208532</v>
+      </c>
+      <c r="C452" t="s">
+        <v>309</v>
+      </c>
+      <c r="D452" t="s">
+        <v>309</v>
+      </c>
+      <c r="E452" s="1">
+        <v>43407.6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>530</v>
+      </c>
+      <c r="B453">
+        <v>13822227877</v>
+      </c>
+      <c r="C453" s="2">
+        <v>2.1E+17</v>
+      </c>
+      <c r="D453" t="s">
+        <v>309</v>
+      </c>
+      <c r="E453" s="1">
+        <v>43407.6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>529</v>
+      </c>
+      <c r="B454">
+        <v>15337160063</v>
+      </c>
+      <c r="C454" s="2">
+        <v>4.2E+17</v>
+      </c>
+      <c r="D454" t="s">
+        <v>528</v>
+      </c>
+      <c r="E454" s="1">
+        <v>43407.6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>309</v>
+      </c>
+      <c r="B455">
+        <v>17773873077</v>
+      </c>
+      <c r="C455" t="s">
+        <v>309</v>
+      </c>
+      <c r="D455" t="s">
+        <v>309</v>
+      </c>
+      <c r="E455" s="1">
+        <v>43407.599305555559</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>527</v>
+      </c>
+      <c r="B456">
+        <v>18233526152</v>
+      </c>
+      <c r="C456" s="2">
+        <v>1.3E+17</v>
+      </c>
+      <c r="D456" t="s">
+        <v>526</v>
+      </c>
+      <c r="E456" s="1">
+        <v>43407.597916666666</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>525</v>
+      </c>
+      <c r="B457">
+        <v>15577578538</v>
+      </c>
+      <c r="C457" s="2">
+        <v>4.51E+17</v>
+      </c>
+      <c r="D457" t="s">
+        <v>524</v>
+      </c>
+      <c r="E457" s="1">
+        <v>43407.597916666666</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>309</v>
+      </c>
+      <c r="B458">
+        <v>18121169519</v>
+      </c>
+      <c r="C458" t="s">
+        <v>309</v>
+      </c>
+      <c r="D458" t="s">
+        <v>309</v>
+      </c>
+      <c r="E458" s="1">
+        <v>43407.597916666666</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>309</v>
+      </c>
+      <c r="B459">
+        <v>18987781406</v>
+      </c>
+      <c r="C459" t="s">
+        <v>309</v>
+      </c>
+      <c r="D459" t="s">
+        <v>309</v>
+      </c>
+      <c r="E459" s="1">
+        <v>43407.597222222219</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>309</v>
+      </c>
+      <c r="B460">
+        <v>18659388745</v>
+      </c>
+      <c r="C460" t="s">
+        <v>309</v>
+      </c>
+      <c r="D460" t="s">
+        <v>309</v>
+      </c>
+      <c r="E460" s="1">
+        <v>43407.597222222219</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>309</v>
+      </c>
+      <c r="B461">
+        <v>15116000023</v>
+      </c>
+      <c r="C461" t="s">
+        <v>309</v>
+      </c>
+      <c r="D461" t="s">
+        <v>309</v>
+      </c>
+      <c r="E461" s="1">
+        <v>43407.59375</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>309</v>
+      </c>
+      <c r="B462">
+        <v>15282873274</v>
+      </c>
+      <c r="C462" t="s">
+        <v>309</v>
+      </c>
+      <c r="D462" t="s">
+        <v>309</v>
+      </c>
+      <c r="E462" s="1">
+        <v>43407.593055555553</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>309</v>
+      </c>
+      <c r="B463">
+        <v>15523093850</v>
+      </c>
+      <c r="C463" t="s">
+        <v>309</v>
+      </c>
+      <c r="D463" t="s">
+        <v>309</v>
+      </c>
+      <c r="E463" s="1">
+        <v>43407.592361111114</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>523</v>
+      </c>
+      <c r="B464">
+        <v>18100160787</v>
+      </c>
+      <c r="C464" s="2">
+        <v>3.3E+17</v>
+      </c>
+      <c r="D464" t="s">
+        <v>309</v>
+      </c>
+      <c r="E464" s="1">
+        <v>43407.591666666667</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>522</v>
+      </c>
+      <c r="B465">
+        <v>17784725178</v>
+      </c>
+      <c r="C465" s="2">
+        <v>5E+17</v>
+      </c>
+      <c r="D465" t="s">
+        <v>521</v>
+      </c>
+      <c r="E465" s="1">
+        <v>43407.590277777781</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>520</v>
+      </c>
+      <c r="B466">
+        <v>18717620388</v>
+      </c>
+      <c r="C466" s="2">
+        <v>6.11E+17</v>
+      </c>
+      <c r="D466" t="s">
+        <v>309</v>
+      </c>
+      <c r="E466" s="1">
+        <v>43407.589583333334</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>519</v>
+      </c>
+      <c r="B467">
+        <v>15215517722</v>
+      </c>
+      <c r="C467" s="2">
+        <v>3.42E+17</v>
+      </c>
+      <c r="D467" t="s">
+        <v>518</v>
+      </c>
+      <c r="E467" s="1">
+        <v>43407.589583333334</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>309</v>
+      </c>
+      <c r="B468">
+        <v>15234869232</v>
+      </c>
+      <c r="C468" t="s">
+        <v>309</v>
+      </c>
+      <c r="D468" t="s">
+        <v>309</v>
+      </c>
+      <c r="E468" s="1">
+        <v>43407.588194444441</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>517</v>
+      </c>
+      <c r="B469">
+        <v>13225333165</v>
+      </c>
+      <c r="C469" s="2">
+        <v>3.7E+17</v>
+      </c>
+      <c r="D469" t="s">
+        <v>309</v>
+      </c>
+      <c r="E469" s="1">
+        <v>43407.588194444441</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>309</v>
+      </c>
+      <c r="B470">
+        <v>13663303881</v>
+      </c>
+      <c r="C470" t="s">
+        <v>309</v>
+      </c>
+      <c r="D470" t="s">
+        <v>309</v>
+      </c>
+      <c r="E470" s="1">
+        <v>43407.588194444441</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>516</v>
+      </c>
+      <c r="B471">
+        <v>15059165682</v>
+      </c>
+      <c r="C471" s="2">
+        <v>3.5E+17</v>
+      </c>
+      <c r="D471" t="s">
+        <v>309</v>
+      </c>
+      <c r="E471" s="1">
+        <v>43407.587500000001</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>309</v>
+      </c>
+      <c r="B472">
+        <v>15551892966</v>
+      </c>
+      <c r="C472" t="s">
+        <v>309</v>
+      </c>
+      <c r="D472" t="s">
+        <v>309</v>
+      </c>
+      <c r="E472" s="1">
+        <v>43407.587500000001</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>309</v>
+      </c>
+      <c r="B473">
+        <v>18715036258</v>
+      </c>
+      <c r="C473" t="s">
+        <v>309</v>
+      </c>
+      <c r="D473" t="s">
+        <v>309</v>
+      </c>
+      <c r="E473" s="1">
+        <v>43407.586805555555</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>515</v>
+      </c>
+      <c r="B474">
+        <v>18285071174</v>
+      </c>
+      <c r="C474" s="2">
+        <v>5.23E+17</v>
+      </c>
+      <c r="D474" t="s">
+        <v>514</v>
+      </c>
+      <c r="E474" s="1">
+        <v>43407.586805555555</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>513</v>
+      </c>
+      <c r="B475">
+        <v>17634438536</v>
+      </c>
+      <c r="C475" t="s">
+        <v>512</v>
+      </c>
+      <c r="D475" t="s">
+        <v>511</v>
+      </c>
+      <c r="E475" s="1">
+        <v>43407.585416666669</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>510</v>
+      </c>
+      <c r="B476">
+        <v>17872407765</v>
+      </c>
+      <c r="C476" s="2">
+        <v>4.31E+17</v>
+      </c>
+      <c r="D476" t="s">
+        <v>509</v>
+      </c>
+      <c r="E476" s="1">
+        <v>43407.585416666669</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>508</v>
+      </c>
+      <c r="B477">
+        <v>15835957849</v>
+      </c>
+      <c r="C477" t="s">
+        <v>507</v>
+      </c>
+      <c r="D477" t="s">
+        <v>506</v>
+      </c>
+      <c r="E477" s="1">
+        <v>43407.584722222222</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>505</v>
+      </c>
+      <c r="B478">
+        <v>13862274190</v>
+      </c>
+      <c r="C478" s="2">
+        <v>3.42E+17</v>
+      </c>
+      <c r="D478" t="s">
+        <v>504</v>
+      </c>
+      <c r="E478" s="1">
+        <v>43407.584027777775</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>503</v>
+      </c>
+      <c r="B479">
+        <v>13922173361</v>
+      </c>
+      <c r="C479" s="2">
+        <v>3.61E+17</v>
+      </c>
+      <c r="D479" t="s">
+        <v>502</v>
+      </c>
+      <c r="E479" s="1">
+        <v>43407.584027777775</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>501</v>
+      </c>
+      <c r="B480">
+        <v>15259015803</v>
+      </c>
+      <c r="C480" s="2">
+        <v>3.51E+17</v>
+      </c>
+      <c r="D480" t="s">
+        <v>500</v>
+      </c>
+      <c r="E480" s="1">
+        <v>43407.584027777775</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>309</v>
+      </c>
+      <c r="B481">
+        <v>15060237312</v>
+      </c>
+      <c r="C481" t="s">
+        <v>309</v>
+      </c>
+      <c r="D481" t="s">
+        <v>309</v>
+      </c>
+      <c r="E481" s="1">
+        <v>43407.583333333336</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>309</v>
+      </c>
+      <c r="B482">
+        <v>13924099499</v>
+      </c>
+      <c r="C482" t="s">
+        <v>309</v>
+      </c>
+      <c r="D482" t="s">
+        <v>309</v>
+      </c>
+      <c r="E482" s="1">
+        <v>43407.583333333336</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>499</v>
+      </c>
+      <c r="B483">
+        <v>15264785590</v>
+      </c>
+      <c r="C483" s="2">
+        <v>3.71E+17</v>
+      </c>
+      <c r="D483" t="s">
+        <v>309</v>
+      </c>
+      <c r="E483" s="1">
+        <v>43407.581944444442</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>498</v>
+      </c>
+      <c r="B484">
+        <v>13025543006</v>
+      </c>
+      <c r="C484" s="2">
+        <v>4.31E+17</v>
+      </c>
+      <c r="D484" t="s">
+        <v>497</v>
+      </c>
+      <c r="E484" s="1">
+        <v>43407.581250000003</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>496</v>
+      </c>
+      <c r="B485">
+        <v>15866527123</v>
+      </c>
+      <c r="C485" t="s">
+        <v>495</v>
+      </c>
+      <c r="D485" t="s">
+        <v>309</v>
+      </c>
+      <c r="E485" s="1">
+        <v>43407.581250000003</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>309</v>
+      </c>
+      <c r="B486">
+        <v>13811295301</v>
+      </c>
+      <c r="C486" t="s">
+        <v>309</v>
+      </c>
+      <c r="D486" t="s">
+        <v>309</v>
+      </c>
+      <c r="E486" s="1">
+        <v>43407.579861111109</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>309</v>
+      </c>
+      <c r="B487">
+        <v>18603667990</v>
+      </c>
+      <c r="C487" t="s">
+        <v>309</v>
+      </c>
+      <c r="D487" t="s">
+        <v>309</v>
+      </c>
+      <c r="E487" s="1">
+        <v>43407.579861111109</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>309</v>
+      </c>
+      <c r="B488">
+        <v>13132916508</v>
+      </c>
+      <c r="C488" t="s">
+        <v>309</v>
+      </c>
+      <c r="D488" t="s">
+        <v>309</v>
+      </c>
+      <c r="E488" s="1">
+        <v>43407.57916666667</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>494</v>
+      </c>
+      <c r="B489">
+        <v>13632587374</v>
+      </c>
+      <c r="C489" s="2">
+        <v>4.41E+17</v>
+      </c>
+      <c r="D489" t="s">
+        <v>493</v>
+      </c>
+      <c r="E489" s="1">
+        <v>43407.578472222223</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>309</v>
+      </c>
+      <c r="B490">
+        <v>13411321733</v>
+      </c>
+      <c r="C490" t="s">
+        <v>309</v>
+      </c>
+      <c r="D490" t="s">
+        <v>309</v>
+      </c>
+      <c r="E490" s="1">
+        <v>43407.578472222223</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>309</v>
+      </c>
+      <c r="B491">
+        <v>17620414083</v>
+      </c>
+      <c r="C491" t="s">
+        <v>309</v>
+      </c>
+      <c r="D491" t="s">
+        <v>309</v>
+      </c>
+      <c r="E491" s="1">
+        <v>43407.577777777777</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>309</v>
+      </c>
+      <c r="B492">
+        <v>15044768889</v>
+      </c>
+      <c r="C492" t="s">
+        <v>309</v>
+      </c>
+      <c r="D492" t="s">
+        <v>309</v>
+      </c>
+      <c r="E492" s="1">
+        <v>43407.57708333333</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>13078155993</v>
+      </c>
+      <c r="C493" s="2">
+        <v>4.41E+17</v>
+      </c>
+      <c r="D493" t="s">
+        <v>491</v>
+      </c>
+      <c r="E493" s="1">
+        <v>43407.57708333333</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>490</v>
+      </c>
+      <c r="B494">
+        <v>18252410878</v>
+      </c>
+      <c r="C494" s="2">
+        <v>3.2E+17</v>
+      </c>
+      <c r="D494" t="s">
+        <v>489</v>
+      </c>
+      <c r="E494" s="1">
+        <v>43407.576388888891</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>488</v>
+      </c>
+      <c r="B495">
+        <v>18688967738</v>
+      </c>
+      <c r="C495" s="2">
+        <v>4.4E+17</v>
+      </c>
+      <c r="D495" t="s">
+        <v>309</v>
+      </c>
+      <c r="E495" s="1">
+        <v>43407.574999999997</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>309</v>
+      </c>
+      <c r="B496">
+        <v>13173081516</v>
+      </c>
+      <c r="C496" t="s">
+        <v>309</v>
+      </c>
+      <c r="D496" t="s">
+        <v>309</v>
+      </c>
+      <c r="E496" s="1">
+        <v>43407.572222222225</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>487</v>
+      </c>
+      <c r="B497">
+        <v>13357049628</v>
+      </c>
+      <c r="C497" s="2">
+        <v>3.31E+17</v>
+      </c>
+      <c r="D497" t="s">
+        <v>309</v>
+      </c>
+      <c r="E497" s="1">
+        <v>43407.572222222225</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>486</v>
+      </c>
+      <c r="B498">
+        <v>18556139280</v>
+      </c>
+      <c r="C498" t="s">
+        <v>485</v>
+      </c>
+      <c r="D498" t="s">
+        <v>484</v>
+      </c>
+      <c r="E498" s="1">
+        <v>43407.571527777778</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>309</v>
+      </c>
+      <c r="B499">
+        <v>15042482516</v>
+      </c>
+      <c r="C499" t="s">
+        <v>309</v>
+      </c>
+      <c r="D499" t="s">
+        <v>309</v>
+      </c>
+      <c r="E499" s="1">
+        <v>43407.571527777778</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>483</v>
+      </c>
+      <c r="B500">
+        <v>18258401898</v>
+      </c>
+      <c r="C500" t="s">
+        <v>482</v>
+      </c>
+      <c r="D500" t="s">
+        <v>481</v>
+      </c>
+      <c r="E500" s="1">
+        <v>43407.570833333331</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>309</v>
+      </c>
+      <c r="B501">
+        <v>13298773835</v>
+      </c>
+      <c r="C501" t="s">
+        <v>309</v>
+      </c>
+      <c r="D501" t="s">
+        <v>309</v>
+      </c>
+      <c r="E501" s="1">
+        <v>43407.570138888892</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>480</v>
+      </c>
+      <c r="B502">
+        <v>13376841077</v>
+      </c>
+      <c r="C502" s="2">
+        <v>3.33E+17</v>
+      </c>
+      <c r="D502" t="s">
+        <v>309</v>
+      </c>
+      <c r="E502" s="1">
+        <v>43407.569444444445</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>479</v>
+      </c>
+      <c r="B503">
+        <v>18750166485</v>
+      </c>
+      <c r="C503" s="2">
+        <v>3.5E+17</v>
+      </c>
+      <c r="D503" t="s">
+        <v>478</v>
+      </c>
+      <c r="E503" s="1">
+        <v>43407.569444444445</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>477</v>
+      </c>
+      <c r="B504">
+        <v>18771147992</v>
+      </c>
+      <c r="C504" s="2">
+        <v>4.21E+17</v>
+      </c>
+      <c r="D504" t="s">
+        <v>309</v>
+      </c>
+      <c r="E504" s="1">
+        <v>43407.569444444445</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>476</v>
+      </c>
+      <c r="B505">
+        <v>18761562057</v>
+      </c>
+      <c r="C505" s="2">
+        <v>3.2E+17</v>
+      </c>
+      <c r="D505" t="s">
+        <v>309</v>
+      </c>
+      <c r="E505" s="1">
+        <v>43407.568055555559</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>309</v>
+      </c>
+      <c r="B506">
+        <v>17639375478</v>
+      </c>
+      <c r="C506" t="s">
+        <v>309</v>
+      </c>
+      <c r="D506" t="s">
+        <v>309</v>
+      </c>
+      <c r="E506" s="1">
+        <v>43407.566666666666</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>309</v>
+      </c>
+      <c r="B507">
+        <v>13669170073</v>
+      </c>
+      <c r="C507" t="s">
+        <v>309</v>
+      </c>
+      <c r="D507" t="s">
+        <v>309</v>
+      </c>
+      <c r="E507" s="1">
+        <v>43407.566666666666</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>309</v>
+      </c>
+      <c r="B508">
+        <v>15054628251</v>
+      </c>
+      <c r="C508" t="s">
+        <v>309</v>
+      </c>
+      <c r="D508" t="s">
+        <v>309</v>
+      </c>
+      <c r="E508" s="1">
+        <v>43407.566666666666</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>475</v>
+      </c>
+      <c r="B509">
+        <v>13501346663</v>
+      </c>
+      <c r="C509" s="2">
+        <v>1.1E+17</v>
+      </c>
+      <c r="D509" t="s">
+        <v>474</v>
+      </c>
+      <c r="E509" s="1">
+        <v>43407.563888888886</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>309</v>
+      </c>
+      <c r="B510">
+        <v>17385295333</v>
+      </c>
+      <c r="C510" t="s">
+        <v>309</v>
+      </c>
+      <c r="D510" t="s">
+        <v>309</v>
+      </c>
+      <c r="E510" s="1">
+        <v>43407.563194444447</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>309</v>
+      </c>
+      <c r="B511">
+        <v>17875178194</v>
+      </c>
+      <c r="C511" t="s">
+        <v>309</v>
+      </c>
+      <c r="D511" t="s">
+        <v>309</v>
+      </c>
+      <c r="E511" s="1">
+        <v>43407.563194444447</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>473</v>
+      </c>
+      <c r="B512">
+        <v>18737379801</v>
+      </c>
+      <c r="C512" s="2">
+        <v>4.11E+17</v>
+      </c>
+      <c r="D512" t="s">
+        <v>472</v>
+      </c>
+      <c r="E512" s="1">
+        <v>43407.561805555553</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>471</v>
+      </c>
+      <c r="B513">
+        <v>13005434403</v>
+      </c>
+      <c r="C513" s="2">
+        <v>4.29E+17</v>
+      </c>
+      <c r="D513" t="s">
+        <v>470</v>
+      </c>
+      <c r="E513" s="1">
+        <v>43407.561805555553</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>469</v>
+      </c>
+      <c r="B514">
+        <v>13250039158</v>
+      </c>
+      <c r="C514" s="2">
+        <v>4.42E+17</v>
+      </c>
+      <c r="D514" t="s">
+        <v>468</v>
+      </c>
+      <c r="E514" s="1">
+        <v>43407.561805555553</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>309</v>
+      </c>
+      <c r="B515">
+        <v>15692223289</v>
+      </c>
+      <c r="C515" t="s">
+        <v>309</v>
+      </c>
+      <c r="D515" t="s">
+        <v>309</v>
+      </c>
+      <c r="E515" s="1">
+        <v>43407.561111111114</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>309</v>
+      </c>
+      <c r="B516">
+        <v>18968909122</v>
+      </c>
+      <c r="C516" t="s">
+        <v>309</v>
+      </c>
+      <c r="D516" t="s">
+        <v>309</v>
+      </c>
+      <c r="E516" s="1">
+        <v>43407.561111111114</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>467</v>
+      </c>
+      <c r="B517">
+        <v>18676682211</v>
+      </c>
+      <c r="C517" s="2">
+        <v>4.33E+17</v>
+      </c>
+      <c r="D517" t="s">
+        <v>466</v>
+      </c>
+      <c r="E517" s="1">
+        <v>43407.55972222222</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>309</v>
+      </c>
+      <c r="B518">
+        <v>13034615470</v>
+      </c>
+      <c r="C518" t="s">
+        <v>309</v>
+      </c>
+      <c r="D518" t="s">
+        <v>309</v>
+      </c>
+      <c r="E518" s="1">
+        <v>43407.55972222222</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>309</v>
+      </c>
+      <c r="B519">
+        <v>13706109811</v>
+      </c>
+      <c r="C519" t="s">
+        <v>309</v>
+      </c>
+      <c r="D519" t="s">
+        <v>309</v>
+      </c>
+      <c r="E519" s="1">
+        <v>43407.55972222222</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>465</v>
+      </c>
+      <c r="B520">
+        <v>13003925350</v>
+      </c>
+      <c r="C520" s="2">
+        <v>3.5E+17</v>
+      </c>
+      <c r="D520" t="s">
+        <v>464</v>
+      </c>
+      <c r="E520" s="1">
+        <v>43407.559027777781</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>463</v>
+      </c>
+      <c r="B521">
+        <v>13665699369</v>
+      </c>
+      <c r="C521" s="2">
+        <v>3.42E+17</v>
+      </c>
+      <c r="D521" t="s">
+        <v>462</v>
+      </c>
+      <c r="E521" s="1">
+        <v>43407.559027777781</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>461</v>
+      </c>
+      <c r="B522">
+        <v>15013989976</v>
+      </c>
+      <c r="C522" s="2">
+        <v>4.11E+17</v>
+      </c>
+      <c r="D522" t="s">
+        <v>460</v>
+      </c>
+      <c r="E522" s="1">
+        <v>43407.559027777781</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>459</v>
+      </c>
+      <c r="B523">
+        <v>17677280553</v>
+      </c>
+      <c r="C523" s="2">
+        <v>4.53E+17</v>
+      </c>
+      <c r="D523" t="s">
+        <v>458</v>
+      </c>
+      <c r="E523" s="1">
+        <v>43407.557638888888</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>457</v>
+      </c>
+      <c r="B524">
+        <v>15018632644</v>
+      </c>
+      <c r="C524" s="2">
+        <v>4.42E+17</v>
+      </c>
+      <c r="D524" t="s">
+        <v>456</v>
+      </c>
+      <c r="E524" s="1">
+        <v>43407.557638888888</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>455</v>
+      </c>
+      <c r="B525">
+        <v>15054970025</v>
+      </c>
+      <c r="C525" t="s">
+        <v>454</v>
+      </c>
+      <c r="D525" t="s">
+        <v>309</v>
+      </c>
+      <c r="E525" s="1">
+        <v>43407.556944444441</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>309</v>
+      </c>
+      <c r="B526">
+        <v>18872120340</v>
+      </c>
+      <c r="C526" t="s">
+        <v>309</v>
+      </c>
+      <c r="D526" t="s">
+        <v>309</v>
+      </c>
+      <c r="E526" s="1">
+        <v>43407.556944444441</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>453</v>
+      </c>
+      <c r="B527">
+        <v>13667910237</v>
+      </c>
+      <c r="C527" s="2">
+        <v>3.62E+17</v>
+      </c>
+      <c r="D527" t="s">
+        <v>452</v>
+      </c>
+      <c r="E527" s="1">
+        <v>43407.556944444441</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>309</v>
+      </c>
+      <c r="B528">
+        <v>18507730733</v>
+      </c>
+      <c r="C528" t="s">
+        <v>309</v>
+      </c>
+      <c r="D528" t="s">
+        <v>309</v>
+      </c>
+      <c r="E528" s="1">
+        <v>43407.556944444441</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>451</v>
+      </c>
+      <c r="B529">
+        <v>15267583351</v>
+      </c>
+      <c r="C529" s="2">
+        <v>3.31E+17</v>
+      </c>
+      <c r="D529" t="s">
+        <v>450</v>
+      </c>
+      <c r="E529" s="1">
+        <v>43407.554166666669</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>449</v>
+      </c>
+      <c r="B530">
+        <v>13677036361</v>
+      </c>
+      <c r="C530" s="2">
+        <v>3.62E+17</v>
+      </c>
+      <c r="D530" t="s">
+        <v>448</v>
+      </c>
+      <c r="E530" s="1">
+        <v>43407.553472222222</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>309</v>
+      </c>
+      <c r="B531">
+        <v>15904087957</v>
+      </c>
+      <c r="C531" t="s">
+        <v>309</v>
+      </c>
+      <c r="D531" t="s">
+        <v>309</v>
+      </c>
+      <c r="E531" s="1">
+        <v>43407.553472222222</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>447</v>
+      </c>
+      <c r="B532">
+        <v>15912792377</v>
+      </c>
+      <c r="C532" s="2">
+        <v>5.33E+17</v>
+      </c>
+      <c r="D532" t="s">
+        <v>446</v>
+      </c>
+      <c r="E532" s="1">
+        <v>43407.552777777775</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>445</v>
+      </c>
+      <c r="B533">
+        <v>13433305015</v>
+      </c>
+      <c r="C533" s="2">
+        <v>3.51E+17</v>
+      </c>
+      <c r="D533" t="s">
+        <v>309</v>
+      </c>
+      <c r="E533" s="1">
+        <v>43407.552083333336</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>444</v>
+      </c>
+      <c r="B534">
+        <v>15334885715</v>
+      </c>
+      <c r="C534" s="2">
+        <v>1.53E+17</v>
+      </c>
+      <c r="D534" t="s">
+        <v>309</v>
+      </c>
+      <c r="E534" s="1">
+        <v>43407.552083333336</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>309</v>
+      </c>
+      <c r="B535">
+        <v>18707063352</v>
+      </c>
+      <c r="C535" t="s">
+        <v>309</v>
+      </c>
+      <c r="D535" t="s">
+        <v>309</v>
+      </c>
+      <c r="E535" s="1">
+        <v>43407.551388888889</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>309</v>
+      </c>
+      <c r="B536">
+        <v>17368878732</v>
+      </c>
+      <c r="C536" t="s">
+        <v>309</v>
+      </c>
+      <c r="D536" t="s">
+        <v>309</v>
+      </c>
+      <c r="E536" s="1">
+        <v>43407.551388888889</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>443</v>
+      </c>
+      <c r="B537">
+        <v>17780845242</v>
+      </c>
+      <c r="C537" s="2">
+        <v>5.13E+17</v>
+      </c>
+      <c r="D537" t="s">
+        <v>442</v>
+      </c>
+      <c r="E537" s="1">
+        <v>43407.551388888889</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>441</v>
+      </c>
+      <c r="B538">
+        <v>18847924334</v>
+      </c>
+      <c r="C538" s="2">
+        <v>1.53E+17</v>
+      </c>
+      <c r="D538" t="s">
+        <v>309</v>
+      </c>
+      <c r="E538" s="1">
+        <v>43407.547222222223</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>309</v>
+      </c>
+      <c r="B539">
+        <v>18775565616</v>
+      </c>
+      <c r="C539" t="s">
+        <v>309</v>
+      </c>
+      <c r="D539" t="s">
+        <v>309</v>
+      </c>
+      <c r="E539" s="1">
+        <v>43407.547222222223</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>440</v>
+      </c>
+      <c r="B540">
+        <v>18562127721</v>
+      </c>
+      <c r="C540" s="2">
+        <v>1.52E+17</v>
+      </c>
+      <c r="D540" t="s">
+        <v>439</v>
+      </c>
+      <c r="E540" s="1">
+        <v>43407.546527777777</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>309</v>
+      </c>
+      <c r="B541">
+        <v>15282851743</v>
+      </c>
+      <c r="C541" t="s">
+        <v>309</v>
+      </c>
+      <c r="D541" t="s">
+        <v>309</v>
+      </c>
+      <c r="E541" s="1">
+        <v>43407.544444444444</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>309</v>
+      </c>
+      <c r="B542">
+        <v>13584482097</v>
+      </c>
+      <c r="C542" t="s">
+        <v>309</v>
+      </c>
+      <c r="D542" t="s">
+        <v>309</v>
+      </c>
+      <c r="E542" s="1">
+        <v>43407.543749999997</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>438</v>
+      </c>
+      <c r="B543">
+        <v>13760439085</v>
+      </c>
+      <c r="C543" s="2">
+        <v>4.22E+17</v>
+      </c>
+      <c r="D543" t="s">
+        <v>437</v>
+      </c>
+      <c r="E543" s="1">
+        <v>43407.542361111111</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>309</v>
+      </c>
+      <c r="B544">
+        <v>13639713704</v>
+      </c>
+      <c r="C544" t="s">
+        <v>309</v>
+      </c>
+      <c r="D544" t="s">
+        <v>309</v>
+      </c>
+      <c r="E544" s="1">
+        <v>43407.541666666664</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>436</v>
+      </c>
+      <c r="B545">
+        <v>15922741112</v>
+      </c>
+      <c r="C545" s="2">
+        <v>5.1E+17</v>
+      </c>
+      <c r="D545" t="s">
+        <v>309</v>
+      </c>
+      <c r="E545" s="1">
+        <v>43407.540972222225</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>435</v>
+      </c>
+      <c r="B546">
+        <v>15091538115</v>
+      </c>
+      <c r="C546" s="2">
+        <v>6.11E+17</v>
+      </c>
+      <c r="D546" t="s">
+        <v>434</v>
+      </c>
+      <c r="E546" s="1">
+        <v>43407.540972222225</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>433</v>
+      </c>
+      <c r="B547">
+        <v>13922433602</v>
+      </c>
+      <c r="C547" s="2">
+        <v>5.11E+17</v>
+      </c>
+      <c r="D547" t="s">
+        <v>432</v>
+      </c>
+      <c r="E547" s="1">
+        <v>43407.540277777778</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>309</v>
+      </c>
+      <c r="B548">
+        <v>17336754651</v>
+      </c>
+      <c r="C548" t="s">
+        <v>309</v>
+      </c>
+      <c r="D548" t="s">
+        <v>309</v>
+      </c>
+      <c r="E548" s="1">
+        <v>43407.539583333331</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>431</v>
+      </c>
+      <c r="B549">
+        <v>17696595771</v>
+      </c>
+      <c r="C549" s="2">
+        <v>4.21E+17</v>
+      </c>
+      <c r="D549" t="s">
+        <v>430</v>
+      </c>
+      <c r="E549" s="1">
+        <v>43407.538888888892</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>429</v>
+      </c>
+      <c r="B550">
+        <v>15060152657</v>
+      </c>
+      <c r="C550" s="2">
+        <v>3.5E+17</v>
+      </c>
+      <c r="D550" t="s">
+        <v>309</v>
+      </c>
+      <c r="E550" s="1">
+        <v>43407.538888888892</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>428</v>
+      </c>
+      <c r="B551">
+        <v>15070573282</v>
+      </c>
+      <c r="C551" s="2">
+        <v>3.62E+17</v>
+      </c>
+      <c r="D551" t="s">
+        <v>427</v>
+      </c>
+      <c r="E551" s="1">
+        <v>43407.537499999999</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>309</v>
+      </c>
+      <c r="B552">
+        <v>13484226613</v>
+      </c>
+      <c r="C552" t="s">
+        <v>309</v>
+      </c>
+      <c r="D552" t="s">
+        <v>309</v>
+      </c>
+      <c r="E552" s="1">
+        <v>43407.537499999999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>309</v>
+      </c>
+      <c r="B553">
+        <v>15944915509</v>
+      </c>
+      <c r="C553" t="s">
+        <v>309</v>
+      </c>
+      <c r="D553" t="s">
+        <v>309</v>
+      </c>
+      <c r="E553" s="1">
+        <v>43407.536805555559</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>309</v>
+      </c>
+      <c r="B554">
+        <v>15088833859</v>
+      </c>
+      <c r="C554" t="s">
+        <v>309</v>
+      </c>
+      <c r="D554" t="s">
+        <v>309</v>
+      </c>
+      <c r="E554" s="1">
+        <v>43407.536111111112</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>426</v>
+      </c>
+      <c r="B555">
+        <v>18261666720</v>
+      </c>
+      <c r="C555" s="2">
+        <v>4.12E+17</v>
+      </c>
+      <c r="D555" t="s">
+        <v>425</v>
+      </c>
+      <c r="E555" s="1">
+        <v>43407.53402777778</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>309</v>
+      </c>
+      <c r="B556">
+        <v>15578837728</v>
+      </c>
+      <c r="C556" t="s">
+        <v>309</v>
+      </c>
+      <c r="D556" t="s">
+        <v>309</v>
+      </c>
+      <c r="E556" s="1">
+        <v>43407.530555555553</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>309</v>
+      </c>
+      <c r="B557">
+        <v>17799047673</v>
+      </c>
+      <c r="C557" t="s">
+        <v>309</v>
+      </c>
+      <c r="D557" t="s">
+        <v>309</v>
+      </c>
+      <c r="E557" s="1">
+        <v>43407.530555555553</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>424</v>
+      </c>
+      <c r="B558">
+        <v>18861357578</v>
+      </c>
+      <c r="C558" s="2">
+        <v>3.42E+17</v>
+      </c>
+      <c r="D558" t="s">
+        <v>423</v>
+      </c>
+      <c r="E558" s="1">
+        <v>43407.529861111114</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>422</v>
+      </c>
+      <c r="B559">
+        <v>13971685919</v>
+      </c>
+      <c r="C559" s="2">
+        <v>3.21E+17</v>
+      </c>
+      <c r="D559" t="s">
+        <v>421</v>
+      </c>
+      <c r="E559" s="1">
+        <v>43407.527777777781</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>420</v>
+      </c>
+      <c r="B560">
+        <v>18285480195</v>
+      </c>
+      <c r="C560" s="2">
+        <v>5.23E+17</v>
+      </c>
+      <c r="D560" t="s">
+        <v>419</v>
+      </c>
+      <c r="E560" s="1">
+        <v>43407.527777777781</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>418</v>
+      </c>
+      <c r="B561">
+        <v>18368001929</v>
+      </c>
+      <c r="C561" s="2">
+        <v>4.52E+17</v>
+      </c>
+      <c r="D561" t="s">
+        <v>309</v>
+      </c>
+      <c r="E561" s="1">
+        <v>43407.527083333334</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>417</v>
+      </c>
+      <c r="B562">
+        <v>13518046431</v>
+      </c>
+      <c r="C562" s="2">
+        <v>3.71E+17</v>
+      </c>
+      <c r="D562" t="s">
+        <v>416</v>
+      </c>
+      <c r="E562" s="1">
+        <v>43407.527083333334</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>415</v>
+      </c>
+      <c r="B563">
+        <v>18522881487</v>
+      </c>
+      <c r="C563" s="2">
+        <v>4.1E+17</v>
+      </c>
+      <c r="D563" t="s">
+        <v>309</v>
+      </c>
+      <c r="E563" s="1">
+        <v>43407.527083333334</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>309</v>
+      </c>
+      <c r="B564">
+        <v>13359471659</v>
+      </c>
+      <c r="C564" t="s">
+        <v>309</v>
+      </c>
+      <c r="D564" t="s">
+        <v>309</v>
+      </c>
+      <c r="E564" s="1">
+        <v>43407.526388888888</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>414</v>
+      </c>
+      <c r="B565">
+        <v>13581659398</v>
+      </c>
+      <c r="C565" s="2">
+        <v>4.21E+17</v>
+      </c>
+      <c r="D565" t="s">
+        <v>413</v>
+      </c>
+      <c r="E565" s="1">
+        <v>43407.526388888888</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>309</v>
+      </c>
+      <c r="B566">
+        <v>17609064891</v>
+      </c>
+      <c r="C566" t="s">
+        <v>309</v>
+      </c>
+      <c r="D566" t="s">
+        <v>309</v>
+      </c>
+      <c r="E566" s="1">
+        <v>43407.525694444441</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>412</v>
+      </c>
+      <c r="B567">
+        <v>18756256272</v>
+      </c>
+      <c r="C567" s="2">
+        <v>3.41E+17</v>
+      </c>
+      <c r="D567" t="s">
+        <v>309</v>
+      </c>
+      <c r="E567" s="1">
+        <v>43407.525694444441</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>309</v>
+      </c>
+      <c r="B568">
+        <v>13235824076</v>
+      </c>
+      <c r="C568" t="s">
+        <v>309</v>
+      </c>
+      <c r="D568" t="s">
+        <v>309</v>
+      </c>
+      <c r="E568" s="1">
+        <v>43407.525694444441</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>411</v>
+      </c>
+      <c r="B569">
+        <v>13857371450</v>
+      </c>
+      <c r="C569" s="2">
+        <v>3.71E+17</v>
+      </c>
+      <c r="D569" t="s">
+        <v>309</v>
+      </c>
+      <c r="E569" s="1">
+        <v>43407.524305555555</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>309</v>
+      </c>
+      <c r="B570">
+        <v>15391565490</v>
+      </c>
+      <c r="C570" t="s">
+        <v>309</v>
+      </c>
+      <c r="D570" t="s">
+        <v>309</v>
+      </c>
+      <c r="E570" s="1">
+        <v>43407.523611111108</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>410</v>
+      </c>
+      <c r="B571">
+        <v>14751083005</v>
+      </c>
+      <c r="C571" s="2">
+        <v>3.21E+17</v>
+      </c>
+      <c r="D571" t="s">
+        <v>309</v>
+      </c>
+      <c r="E571" s="1">
+        <v>43407.522916666669</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>409</v>
+      </c>
+      <c r="B572">
+        <v>15517199831</v>
+      </c>
+      <c r="C572" t="s">
+        <v>408</v>
+      </c>
+      <c r="D572" t="s">
+        <v>407</v>
+      </c>
+      <c r="E572" s="1">
+        <v>43407.522916666669</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>406</v>
+      </c>
+      <c r="B573">
+        <v>13559510648</v>
+      </c>
+      <c r="C573" s="2">
+        <v>5.2E+17</v>
+      </c>
+      <c r="D573" t="s">
+        <v>405</v>
+      </c>
+      <c r="E573" s="1">
+        <v>43407.522222222222</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>404</v>
+      </c>
+      <c r="B574">
+        <v>18523525802</v>
+      </c>
+      <c r="C574" s="2">
+        <v>5E+17</v>
+      </c>
+      <c r="D574" t="s">
+        <v>403</v>
+      </c>
+      <c r="E574" s="1">
+        <v>43407.522222222222</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>402</v>
+      </c>
+      <c r="B575">
+        <v>13169359522</v>
+      </c>
+      <c r="C575" t="s">
+        <v>401</v>
+      </c>
+      <c r="D575" t="s">
+        <v>309</v>
+      </c>
+      <c r="E575" s="1">
+        <v>43407.522222222222</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>309</v>
+      </c>
+      <c r="B576">
+        <v>15282846430</v>
+      </c>
+      <c r="C576" t="s">
+        <v>309</v>
+      </c>
+      <c r="D576" t="s">
+        <v>309</v>
+      </c>
+      <c r="E576" s="1">
+        <v>43407.520833333336</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>400</v>
+      </c>
+      <c r="B577">
+        <v>18004557159</v>
+      </c>
+      <c r="C577" s="2">
+        <v>2.31E+17</v>
+      </c>
+      <c r="D577" t="s">
+        <v>399</v>
+      </c>
+      <c r="E577" s="1">
+        <v>43407.520833333336</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>398</v>
+      </c>
+      <c r="B578">
+        <v>15822819409</v>
+      </c>
+      <c r="C578" s="2">
+        <v>1.2E+17</v>
+      </c>
+      <c r="D578" t="s">
+        <v>397</v>
+      </c>
+      <c r="E578" s="1">
+        <v>43407.520833333336</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>396</v>
+      </c>
+      <c r="B579">
+        <v>17505239776</v>
+      </c>
+      <c r="C579" s="2">
+        <v>3.21E+17</v>
+      </c>
+      <c r="D579" t="s">
+        <v>395</v>
+      </c>
+      <c r="E579" s="1">
+        <v>43407.520833333336</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>394</v>
+      </c>
+      <c r="B580">
+        <v>15866325304</v>
+      </c>
+      <c r="C580" s="2">
+        <v>3.7E+17</v>
+      </c>
+      <c r="D580" t="s">
+        <v>309</v>
+      </c>
+      <c r="E580" s="1">
+        <v>43407.520138888889</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>393</v>
+      </c>
+      <c r="B581">
+        <v>13617824120</v>
+      </c>
+      <c r="C581" s="2">
+        <v>4.51E+17</v>
+      </c>
+      <c r="D581" t="s">
+        <v>392</v>
+      </c>
+      <c r="E581" s="1">
+        <v>43407.517361111109</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>309</v>
+      </c>
+      <c r="B582">
+        <v>18600765943</v>
+      </c>
+      <c r="C582" t="s">
+        <v>309</v>
+      </c>
+      <c r="D582" t="s">
+        <v>309</v>
+      </c>
+      <c r="E582" s="1">
+        <v>43407.517361111109</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>309</v>
+      </c>
+      <c r="B583">
+        <v>15288082683</v>
+      </c>
+      <c r="C583" t="s">
+        <v>309</v>
+      </c>
+      <c r="D583" t="s">
+        <v>309</v>
+      </c>
+      <c r="E583" s="1">
+        <v>43407.51666666667</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>391</v>
+      </c>
+      <c r="B584">
+        <v>18797085300</v>
+      </c>
+      <c r="C584" s="2">
+        <v>6.3E+17</v>
+      </c>
+      <c r="D584" t="s">
+        <v>390</v>
+      </c>
+      <c r="E584" s="1">
+        <v>43407.515277777777</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>389</v>
+      </c>
+      <c r="B585">
+        <v>13060366591</v>
+      </c>
+      <c r="C585" s="2">
+        <v>6.1E+17</v>
+      </c>
+      <c r="D585" t="s">
+        <v>388</v>
+      </c>
+      <c r="E585" s="1">
+        <v>43407.513888888891</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>387</v>
+      </c>
+      <c r="B586">
+        <v>15085222270</v>
+      </c>
+      <c r="C586" s="2">
+        <v>5.23E+17</v>
+      </c>
+      <c r="D586" t="s">
+        <v>386</v>
+      </c>
+      <c r="E586" s="1">
+        <v>43407.513888888891</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>385</v>
+      </c>
+      <c r="B587">
+        <v>13242032210</v>
+      </c>
+      <c r="C587" s="2">
+        <v>4.21E+17</v>
+      </c>
+      <c r="D587" t="s">
+        <v>384</v>
+      </c>
+      <c r="E587" s="1">
+        <v>43407.512499999997</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>383</v>
+      </c>
+      <c r="B588">
+        <v>13551848008</v>
+      </c>
+      <c r="C588" s="2">
+        <v>5.1E+17</v>
+      </c>
+      <c r="D588" t="s">
+        <v>382</v>
+      </c>
+      <c r="E588" s="1">
+        <v>43407.511805555558</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>381</v>
+      </c>
+      <c r="B589">
+        <v>13694425602</v>
+      </c>
+      <c r="C589" s="2">
+        <v>2.3E+17</v>
+      </c>
+      <c r="D589" t="s">
+        <v>380</v>
+      </c>
+      <c r="E589" s="1">
+        <v>43407.511111111111</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>379</v>
+      </c>
+      <c r="B590">
+        <v>15118622365</v>
+      </c>
+      <c r="C590" t="s">
+        <v>378</v>
+      </c>
+      <c r="D590" t="s">
+        <v>377</v>
+      </c>
+      <c r="E590" s="1">
+        <v>43407.509722222225</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>376</v>
+      </c>
+      <c r="B591">
+        <v>13277528858</v>
+      </c>
+      <c r="C591" s="2">
+        <v>4.23E+17</v>
+      </c>
+      <c r="D591" t="s">
+        <v>309</v>
+      </c>
+      <c r="E591" s="1">
+        <v>43407.509027777778</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>375</v>
+      </c>
+      <c r="B592">
+        <v>18761147528</v>
+      </c>
+      <c r="C592" s="2">
+        <v>3.21E+17</v>
+      </c>
+      <c r="D592" t="s">
+        <v>374</v>
+      </c>
+      <c r="E592" s="1">
+        <v>43407.508333333331</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>309</v>
+      </c>
+      <c r="B593">
+        <v>13260838112</v>
+      </c>
+      <c r="C593" t="s">
+        <v>309</v>
+      </c>
+      <c r="D593" t="s">
+        <v>309</v>
+      </c>
+      <c r="E593" s="1">
+        <v>43407.507638888892</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>309</v>
+      </c>
+      <c r="B594">
+        <v>15126943609</v>
+      </c>
+      <c r="C594" t="s">
+        <v>309</v>
+      </c>
+      <c r="D594" t="s">
+        <v>309</v>
+      </c>
+      <c r="E594" s="1">
+        <v>43407.507638888892</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>309</v>
+      </c>
+      <c r="B595">
+        <v>18476593903</v>
+      </c>
+      <c r="C595" t="s">
+        <v>309</v>
+      </c>
+      <c r="D595" t="s">
+        <v>309</v>
+      </c>
+      <c r="E595" s="1">
+        <v>43407.506944444445</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>373</v>
+      </c>
+      <c r="B596">
+        <v>13375070193</v>
+      </c>
+      <c r="C596" s="2">
+        <v>3.51E+17</v>
+      </c>
+      <c r="D596" t="s">
+        <v>372</v>
+      </c>
+      <c r="E596" s="1">
+        <v>43407.505555555559</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>371</v>
+      </c>
+      <c r="B597">
+        <v>15731802294</v>
+      </c>
+      <c r="C597" s="2">
+        <v>1.33E+17</v>
+      </c>
+      <c r="D597" t="s">
+        <v>370</v>
+      </c>
+      <c r="E597" s="1">
+        <v>43407.504861111112</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>369</v>
+      </c>
+      <c r="B598">
+        <v>13667050385</v>
+      </c>
+      <c r="C598" s="2">
+        <v>3.62E+17</v>
+      </c>
+      <c r="D598" t="s">
+        <v>309</v>
+      </c>
+      <c r="E598" s="1">
+        <v>43407.504166666666</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>368</v>
+      </c>
+      <c r="B599">
+        <v>13283013895</v>
+      </c>
+      <c r="C599" s="2">
+        <v>4.13E+17</v>
+      </c>
+      <c r="D599" t="s">
+        <v>367</v>
+      </c>
+      <c r="E599" s="1">
+        <v>43407.504166666666</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>309</v>
+      </c>
+      <c r="B600">
+        <v>13884391234</v>
+      </c>
+      <c r="C600" t="s">
+        <v>309</v>
+      </c>
+      <c r="D600" t="s">
+        <v>309</v>
+      </c>
+      <c r="E600" s="1">
+        <v>43407.504166666666</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>309</v>
+      </c>
+      <c r="B601">
+        <v>18313710879</v>
+      </c>
+      <c r="C601" t="s">
+        <v>309</v>
+      </c>
+      <c r="D601" t="s">
+        <v>309</v>
+      </c>
+      <c r="E601" s="1">
+        <v>43407.503472222219</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>366</v>
+      </c>
+      <c r="B602">
+        <v>13638881915</v>
+      </c>
+      <c r="C602" s="2">
+        <v>5.32E+17</v>
+      </c>
+      <c r="D602" t="s">
+        <v>365</v>
+      </c>
+      <c r="E602" s="1">
+        <v>43407.503472222219</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>364</v>
+      </c>
+      <c r="B603">
+        <v>13922951018</v>
+      </c>
+      <c r="C603" t="s">
+        <v>363</v>
+      </c>
+      <c r="D603" t="s">
+        <v>309</v>
+      </c>
+      <c r="E603" s="1">
+        <v>43407.503472222219</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>309</v>
+      </c>
+      <c r="B604">
+        <v>15071923393</v>
+      </c>
+      <c r="C604" t="s">
+        <v>309</v>
+      </c>
+      <c r="D604" t="s">
+        <v>309</v>
+      </c>
+      <c r="E604" s="1">
+        <v>43407.50277777778</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>362</v>
+      </c>
+      <c r="B605">
+        <v>18645211877</v>
+      </c>
+      <c r="C605" s="2">
+        <v>2.3E+17</v>
+      </c>
+      <c r="D605" t="s">
+        <v>361</v>
+      </c>
+      <c r="E605" s="1">
+        <v>43407.502083333333</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>360</v>
+      </c>
+      <c r="B606">
+        <v>13717426431</v>
+      </c>
+      <c r="C606" s="2">
+        <v>3.61E+17</v>
+      </c>
+      <c r="D606" t="s">
+        <v>359</v>
+      </c>
+      <c r="E606" s="1">
+        <v>43407.501388888886</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>309</v>
+      </c>
+      <c r="B607">
+        <v>18128521060</v>
+      </c>
+      <c r="C607" t="s">
+        <v>309</v>
+      </c>
+      <c r="D607" t="s">
+        <v>309</v>
+      </c>
+      <c r="E607" s="1">
+        <v>43407.500694444447</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>309</v>
+      </c>
+      <c r="B608">
+        <v>13375856967</v>
+      </c>
+      <c r="C608" t="s">
+        <v>309</v>
+      </c>
+      <c r="D608" t="s">
+        <v>309</v>
+      </c>
+      <c r="E608" s="1">
+        <v>43407.500694444447</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>358</v>
+      </c>
+      <c r="B609">
+        <v>17305442030</v>
+      </c>
+      <c r="C609" t="s">
+        <v>357</v>
+      </c>
+      <c r="D609" t="s">
+        <v>356</v>
+      </c>
+      <c r="E609" s="1">
+        <v>43407.500694444447</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>355</v>
+      </c>
+      <c r="B610">
+        <v>18299732278</v>
+      </c>
+      <c r="C610" t="s">
+        <v>354</v>
+      </c>
+      <c r="D610" t="s">
+        <v>309</v>
+      </c>
+      <c r="E610" s="1">
+        <v>43407.499305555553</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>353</v>
+      </c>
+      <c r="B611">
+        <v>15945069573</v>
+      </c>
+      <c r="C611" s="2">
+        <v>2.32E+17</v>
+      </c>
+      <c r="D611" t="s">
+        <v>309</v>
+      </c>
+      <c r="E611" s="1">
+        <v>43407.498611111114</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>352</v>
+      </c>
+      <c r="B612">
+        <v>13786840313</v>
+      </c>
+      <c r="C612" s="2">
+        <v>4.33E+17</v>
+      </c>
+      <c r="D612" t="s">
+        <v>351</v>
+      </c>
+      <c r="E612" s="1">
+        <v>43407.498611111114</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>350</v>
+      </c>
+      <c r="B613">
+        <v>18551616660</v>
+      </c>
+      <c r="C613" s="2">
+        <v>3.2E+17</v>
+      </c>
+      <c r="D613" t="s">
+        <v>349</v>
+      </c>
+      <c r="E613" s="1">
+        <v>43407.497916666667</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>348</v>
+      </c>
+      <c r="B614">
+        <v>17343153115</v>
+      </c>
+      <c r="C614" t="s">
+        <v>347</v>
+      </c>
+      <c r="D614" t="s">
+        <v>346</v>
+      </c>
+      <c r="E614" s="1">
+        <v>43407.497916666667</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>345</v>
+      </c>
+      <c r="B615">
+        <v>13436190809</v>
+      </c>
+      <c r="C615" s="2">
+        <v>4.21E+17</v>
+      </c>
+      <c r="D615" t="s">
+        <v>344</v>
+      </c>
+      <c r="E615" s="1">
+        <v>43407.496527777781</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>343</v>
+      </c>
+      <c r="B616">
+        <v>13559310300</v>
+      </c>
+      <c r="C616" s="2">
+        <v>3.51E+17</v>
+      </c>
+      <c r="D616" t="s">
+        <v>342</v>
+      </c>
+      <c r="E616" s="1">
+        <v>43407.496527777781</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>341</v>
+      </c>
+      <c r="B617">
+        <v>13865720986</v>
+      </c>
+      <c r="C617" s="2">
+        <v>3.42E+17</v>
+      </c>
+      <c r="D617" t="s">
+        <v>340</v>
+      </c>
+      <c r="E617" s="1">
+        <v>43407.495833333334</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>309</v>
+      </c>
+      <c r="B618">
+        <v>13788281191</v>
+      </c>
+      <c r="C618" t="s">
+        <v>309</v>
+      </c>
+      <c r="D618" t="s">
+        <v>309</v>
+      </c>
+      <c r="E618" s="1">
+        <v>43407.495138888888</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>339</v>
+      </c>
+      <c r="B619">
+        <v>18659686799</v>
+      </c>
+      <c r="C619" s="2">
+        <v>3.51E+17</v>
+      </c>
+      <c r="D619" t="s">
+        <v>338</v>
+      </c>
+      <c r="E619" s="1">
+        <v>43407.493750000001</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>337</v>
+      </c>
+      <c r="B620">
+        <v>13856954631</v>
+      </c>
+      <c r="C620" s="2">
+        <v>3.42E+17</v>
+      </c>
+      <c r="D620" t="s">
+        <v>336</v>
+      </c>
+      <c r="E620" s="1">
+        <v>43407.493750000001</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>335</v>
+      </c>
+      <c r="B621">
+        <v>13712616673</v>
+      </c>
+      <c r="C621" s="2">
+        <v>4.42E+17</v>
+      </c>
+      <c r="D621" t="s">
+        <v>309</v>
+      </c>
+      <c r="E621" s="1">
+        <v>43407.492361111108</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>334</v>
+      </c>
+      <c r="B622">
+        <v>13431232946</v>
+      </c>
+      <c r="C622" s="2">
+        <v>5.13E+17</v>
+      </c>
+      <c r="D622" t="s">
+        <v>333</v>
+      </c>
+      <c r="E622" s="1">
+        <v>43407.491666666669</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>309</v>
+      </c>
+      <c r="B623">
+        <v>13436312549</v>
+      </c>
+      <c r="C623" t="s">
+        <v>309</v>
+      </c>
+      <c r="D623" t="s">
+        <v>309</v>
+      </c>
+      <c r="E623" s="1">
+        <v>43407.491666666669</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>332</v>
+      </c>
+      <c r="B624">
+        <v>13789383737</v>
+      </c>
+      <c r="C624" s="2">
+        <v>4.3E+17</v>
+      </c>
+      <c r="D624" t="s">
+        <v>331</v>
+      </c>
+      <c r="E624" s="1">
+        <v>43407.490277777775</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>309</v>
+      </c>
+      <c r="B625">
+        <v>15274036905</v>
+      </c>
+      <c r="C625" t="s">
+        <v>309</v>
+      </c>
+      <c r="D625" t="s">
+        <v>309</v>
+      </c>
+      <c r="E625" s="1">
+        <v>43407.490277777775</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>330</v>
+      </c>
+      <c r="B626">
+        <v>15767399487</v>
+      </c>
+      <c r="C626" s="2">
+        <v>4.41E+17</v>
+      </c>
+      <c r="D626" t="s">
+        <v>309</v>
+      </c>
+      <c r="E626" s="1">
+        <v>43407.489583333336</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>329</v>
+      </c>
+      <c r="B627">
+        <v>13520218418</v>
+      </c>
+      <c r="C627" s="2">
+        <v>2.2E+17</v>
+      </c>
+      <c r="D627" t="s">
+        <v>328</v>
+      </c>
+      <c r="E627" s="1">
+        <v>43407.489583333336</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>309</v>
+      </c>
+      <c r="B628">
+        <v>13863576025</v>
+      </c>
+      <c r="C628" t="s">
+        <v>309</v>
+      </c>
+      <c r="D628" t="s">
+        <v>309</v>
+      </c>
+      <c r="E628" s="1">
+        <v>43407.488194444442</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>327</v>
+      </c>
+      <c r="B629">
+        <v>13558361930</v>
+      </c>
+      <c r="C629" s="2">
+        <v>4.53E+17</v>
+      </c>
+      <c r="D629" t="s">
+        <v>326</v>
+      </c>
+      <c r="E629" s="1">
+        <v>43407.488194444442</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>309</v>
+      </c>
+      <c r="B630">
+        <v>13268403472</v>
+      </c>
+      <c r="C630" t="s">
+        <v>309</v>
+      </c>
+      <c r="D630" t="s">
+        <v>309</v>
+      </c>
+      <c r="E630" s="1">
+        <v>43407.487500000003</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>309</v>
+      </c>
+      <c r="B631">
+        <v>13436993754</v>
+      </c>
+      <c r="C631" t="s">
+        <v>309</v>
+      </c>
+      <c r="D631" t="s">
+        <v>309</v>
+      </c>
+      <c r="E631" s="1">
+        <v>43407.487500000003</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>325</v>
+      </c>
+      <c r="B632">
+        <v>15631653071</v>
+      </c>
+      <c r="C632" s="2">
+        <v>1.31E+17</v>
+      </c>
+      <c r="D632" t="s">
+        <v>324</v>
+      </c>
+      <c r="E632" s="1">
+        <v>43407.487500000003</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>323</v>
+      </c>
+      <c r="B633">
+        <v>13808362985</v>
+      </c>
+      <c r="C633" s="2">
+        <v>5.1E+17</v>
+      </c>
+      <c r="D633" t="s">
+        <v>322</v>
+      </c>
+      <c r="E633" s="1">
+        <v>43407.486805555556</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>321</v>
+      </c>
+      <c r="B634">
+        <v>18968355613</v>
+      </c>
+      <c r="C634" s="2">
+        <v>4.31E+17</v>
+      </c>
+      <c r="D634" t="s">
+        <v>309</v>
+      </c>
+      <c r="E634" s="1">
+        <v>43407.486111111109</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>309</v>
+      </c>
+      <c r="B635">
+        <v>15732262905</v>
+      </c>
+      <c r="C635" t="s">
+        <v>309</v>
+      </c>
+      <c r="D635" t="s">
+        <v>309</v>
+      </c>
+      <c r="E635" s="1">
+        <v>43407.48541666667</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>320</v>
+      </c>
+      <c r="B636">
+        <v>18100646227</v>
+      </c>
+      <c r="C636" s="2">
+        <v>3.4E+17</v>
+      </c>
+      <c r="D636" t="s">
+        <v>309</v>
+      </c>
+      <c r="E636" s="1">
+        <v>43407.484722222223</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>319</v>
+      </c>
+      <c r="B637">
+        <v>18621194246</v>
+      </c>
+      <c r="C637" t="s">
+        <v>318</v>
+      </c>
+      <c r="D637" t="s">
+        <v>317</v>
+      </c>
+      <c r="E637" s="1">
+        <v>43407.484722222223</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>309</v>
+      </c>
+      <c r="B638">
+        <v>13619156277</v>
+      </c>
+      <c r="C638" t="s">
+        <v>309</v>
+      </c>
+      <c r="D638" t="s">
+        <v>309</v>
+      </c>
+      <c r="E638" s="1">
+        <v>43407.484722222223</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>316</v>
+      </c>
+      <c r="B639">
+        <v>13893035534</v>
+      </c>
+      <c r="C639" s="2">
+        <v>6.2E+17</v>
+      </c>
+      <c r="D639" t="s">
+        <v>315</v>
+      </c>
+      <c r="E639" s="1">
+        <v>43407.484027777777</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>314</v>
+      </c>
+      <c r="B640">
+        <v>15528689000</v>
+      </c>
+      <c r="C640" s="2">
+        <v>5.1E+17</v>
+      </c>
+      <c r="D640" t="s">
+        <v>313</v>
+      </c>
+      <c r="E640" s="1">
+        <v>43407.484027777777</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>312</v>
+      </c>
+      <c r="B641">
+        <v>13112888094</v>
+      </c>
+      <c r="C641" s="2">
+        <v>4.31E+17</v>
+      </c>
+      <c r="D641" t="s">
+        <v>311</v>
+      </c>
+      <c r="E641" s="1">
+        <v>43407.482638888891</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>310</v>
+      </c>
+      <c r="B642">
+        <v>18731196145</v>
+      </c>
+      <c r="C642" s="2">
+        <v>1.3E+17</v>
+      </c>
+      <c r="D642" t="s">
+        <v>309</v>
+      </c>
+      <c r="E642" s="1">
+        <v>43407.481944444444</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>309</v>
+      </c>
+      <c r="B643">
+        <v>18531246120</v>
+      </c>
+      <c r="C643" t="s">
+        <v>309</v>
+      </c>
+      <c r="D643" t="s">
+        <v>309</v>
+      </c>
+      <c r="E643" s="1">
+        <v>43407.481249999997</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>309</v>
+      </c>
+      <c r="B644">
+        <v>18790766055</v>
+      </c>
+      <c r="C644" t="s">
+        <v>309</v>
+      </c>
+      <c r="D644" t="s">
+        <v>309</v>
+      </c>
+      <c r="E644" s="1">
+        <v>43407.479166666664</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>309</v>
+      </c>
+      <c r="B645">
+        <v>15770780153</v>
+      </c>
+      <c r="C645" t="s">
+        <v>309</v>
+      </c>
+      <c r="D645" t="s">
+        <v>309</v>
+      </c>
+      <c r="E645" s="1">
+        <v>43407.479166666664</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
